--- a/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
+++ b/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
@@ -892,10 +892,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1042,19 +1042,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2684,24 +2671,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2754,83 +2741,137 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2838,185 +2879,161 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3051,37 +3068,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3760,8 +3747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ106"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:C64"/>
+    <sheetView topLeftCell="A51" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3866,11 +3853,11 @@
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="227" t="s">
+      <c r="F10" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="228"/>
-      <c r="H10" s="229"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="239"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -3879,9 +3866,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="232"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="242"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
     </row>
@@ -3889,18 +3876,18 @@
       <c r="B12" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="233" t="s">
+      <c r="C12" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="239" t="s">
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="239" t="s">
+      <c r="G12" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="239" t="s">
+      <c r="H12" s="224" t="s">
         <v>58</v>
       </c>
       <c r="I12" s="10"/>
@@ -3910,25 +3897,25 @@
       <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="233"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="240"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="45"/>
-      <c r="C14" s="233" t="s">
+      <c r="C14" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
       <c r="I14" s="12"/>
       <c r="J14" s="9"/>
     </row>
@@ -3937,13 +3924,13 @@
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="225" t="s">
+      <c r="F15" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="225" t="s">
+      <c r="G15" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="225" t="s">
+      <c r="H15" s="243" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="9"/>
@@ -3953,9 +3940,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4538,11 +4525,11 @@
       <c r="C43" s="41"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="227" t="s">
+      <c r="F43" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="228"/>
-      <c r="H43" s="229"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="239"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
@@ -4551,9 +4538,9 @@
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="230"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="232"/>
+      <c r="F44" s="240"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="242"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
     </row>
@@ -4561,18 +4548,18 @@
       <c r="B45" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="233" t="s">
+      <c r="C45" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="239" t="s">
+      <c r="D45" s="229"/>
+      <c r="E45" s="229"/>
+      <c r="F45" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="239" t="s">
+      <c r="G45" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="239" t="s">
+      <c r="H45" s="224" t="s">
         <v>58</v>
       </c>
       <c r="I45" s="10"/>
@@ -4582,25 +4569,25 @@
       <c r="B46" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="233"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="240"/>
-      <c r="G46" s="240"/>
-      <c r="H46" s="240"/>
+      <c r="C46" s="228"/>
+      <c r="D46" s="229"/>
+      <c r="E46" s="229"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="225"/>
+      <c r="H46" s="225"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="2:36" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="45"/>
-      <c r="C47" s="233" t="s">
+      <c r="C47" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="241"/>
-      <c r="G47" s="241"/>
-      <c r="H47" s="241"/>
+      <c r="D47" s="229"/>
+      <c r="E47" s="229"/>
+      <c r="F47" s="226"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="226"/>
       <c r="I47" s="12"/>
       <c r="J47" s="9"/>
     </row>
@@ -4609,13 +4596,13 @@
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="225" t="s">
+      <c r="F48" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="225" t="s">
+      <c r="G48" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="H48" s="225" t="s">
+      <c r="H48" s="243" t="s">
         <v>60</v>
       </c>
       <c r="J48" s="9"/>
@@ -4625,9 +4612,9 @@
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="226"/>
-      <c r="G49" s="226"/>
-      <c r="H49" s="226"/>
+      <c r="F49" s="244"/>
+      <c r="G49" s="244"/>
+      <c r="H49" s="244"/>
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:36" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4950,10 +4937,10 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="237" t="s">
+      <c r="B60" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="238"/>
+      <c r="C60" s="233"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
@@ -4964,10 +4951,10 @@
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="237" t="s">
+      <c r="B61" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="238"/>
+      <c r="C61" s="233"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -5003,10 +4990,10 @@
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="243" t="s">
+      <c r="B64" s="234" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="243"/>
+      <c r="C64" s="234"/>
       <c r="D64" s="14"/>
       <c r="E64" s="5"/>
       <c r="F64" s="66" t="s">
@@ -5026,8 +5013,8 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="224"/>
-      <c r="C66" s="224"/>
+      <c r="B66" s="231"/>
+      <c r="C66" s="231"/>
       <c r="D66" s="14"/>
       <c r="E66" s="5"/>
       <c r="F66" s="64" t="s">
@@ -5040,8 +5027,8 @@
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="242"/>
-      <c r="C67" s="242"/>
+      <c r="B67" s="230"/>
+      <c r="C67" s="230"/>
       <c r="D67" s="14"/>
       <c r="E67" s="5"/>
       <c r="F67" s="66" t="s">
@@ -5052,8 +5039,8 @@
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="242"/>
-      <c r="C68" s="242"/>
+      <c r="B68" s="230"/>
+      <c r="C68" s="230"/>
       <c r="D68" s="14"/>
       <c r="E68" s="5"/>
       <c r="F68" s="66"/>
@@ -5076,10 +5063,10 @@
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="224" t="s">
+      <c r="B70" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="224"/>
+      <c r="C70" s="231"/>
       <c r="D70" s="14"/>
       <c r="E70" s="5"/>
       <c r="F70" s="66" t="s">
@@ -5100,8 +5087,8 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="224"/>
-      <c r="C72" s="224"/>
+      <c r="B72" s="231"/>
+      <c r="C72" s="231"/>
       <c r="D72" s="14"/>
       <c r="E72" s="5"/>
       <c r="F72" s="64"/>
@@ -5110,8 +5097,8 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="242"/>
-      <c r="C73" s="242"/>
+      <c r="B73" s="230"/>
+      <c r="C73" s="230"/>
       <c r="D73" s="14"/>
       <c r="E73" s="5"/>
       <c r="F73" s="66"/>
@@ -5120,8 +5107,8 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="242"/>
-      <c r="C74" s="242"/>
+      <c r="B74" s="230"/>
+      <c r="C74" s="230"/>
       <c r="D74" s="14"/>
       <c r="E74" s="5"/>
       <c r="F74" s="10"/>
@@ -5140,10 +5127,10 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="224" t="s">
+      <c r="B76" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="224"/>
+      <c r="C76" s="231"/>
       <c r="D76" s="14"/>
       <c r="E76" s="5"/>
       <c r="F76" s="66"/>
@@ -5162,8 +5149,8 @@
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="224"/>
-      <c r="C78" s="224"/>
+      <c r="B78" s="231"/>
+      <c r="C78" s="231"/>
       <c r="D78" s="14"/>
       <c r="E78" s="37"/>
       <c r="F78" s="64"/>
@@ -5172,8 +5159,8 @@
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B79" s="242"/>
-      <c r="C79" s="242"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="230"/>
       <c r="D79" s="14"/>
       <c r="E79" s="5"/>
       <c r="F79" s="66"/>
@@ -5182,8 +5169,8 @@
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="242"/>
-      <c r="C80" s="242"/>
+      <c r="B80" s="230"/>
+      <c r="C80" s="230"/>
       <c r="D80" s="14"/>
       <c r="E80" s="5"/>
       <c r="F80" s="66"/>
@@ -5202,10 +5189,10 @@
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B82" s="224" t="s">
+      <c r="B82" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="224"/>
+      <c r="C82" s="231"/>
       <c r="D82" s="27"/>
       <c r="E82" s="5"/>
       <c r="F82" s="66"/>
@@ -5369,13 +5356,13 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
-      <c r="C102" s="244"/>
-      <c r="D102" s="244"/>
+      <c r="C102" s="227"/>
+      <c r="D102" s="227"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
-      <c r="C103" s="244"/>
-      <c r="D103" s="244"/>
+      <c r="C103" s="227"/>
+      <c r="D103" s="227"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
@@ -5394,11 +5381,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F43:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B79:C79"/>
@@ -5414,23 +5412,12 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F43:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="C102:D102"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
@@ -5448,8 +5435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5471,54 +5458,54 @@
       <c r="A4" s="200"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="280" t="s">
+      <c r="A5" s="251" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="280"/>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="281" t="s">
+      <c r="A6" s="252" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="281"/>
-      <c r="K6" s="281"/>
+      <c r="B6" s="252"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="245" t="s">
+      <c r="B7" s="277" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="245" t="s">
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="277" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="246"/>
-      <c r="H7" s="247"/>
-      <c r="I7" s="245" t="s">
+      <c r="G7" s="278"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="277" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="247"/>
+      <c r="J7" s="279"/>
       <c r="K7" s="202" t="s">
         <v>113</v>
       </c>
@@ -5526,21 +5513,21 @@
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="204"/>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="280" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="251" t="s">
+      <c r="C8" s="281"/>
+      <c r="D8" s="281"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="283" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="252"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="251" t="s">
+      <c r="G8" s="284"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="283" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="253"/>
+      <c r="J8" s="285"/>
       <c r="K8" s="205"/>
       <c r="L8" s="203"/>
     </row>
@@ -5548,21 +5535,21 @@
       <c r="A9" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="254" t="s">
+      <c r="B9" s="262" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="257" t="s">
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="258"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="257" t="s">
+      <c r="G9" s="266"/>
+      <c r="H9" s="267"/>
+      <c r="I9" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="259"/>
+      <c r="J9" s="267"/>
       <c r="K9" s="205"/>
       <c r="L9" s="203"/>
     </row>
@@ -5570,121 +5557,121 @@
       <c r="A10" s="206">
         <v>1</v>
       </c>
-      <c r="B10" s="254" t="s">
+      <c r="B10" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="257" t="s">
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="258"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="257" t="s">
+      <c r="G10" s="266"/>
+      <c r="H10" s="267"/>
+      <c r="I10" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="259"/>
+      <c r="J10" s="267"/>
       <c r="K10" s="205"/>
       <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="206"/>
-      <c r="B11" s="260" t="s">
+      <c r="B11" s="268" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="257" t="s">
+      <c r="C11" s="269"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="258"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="257" t="s">
+      <c r="G11" s="266"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="259"/>
+      <c r="J11" s="267"/>
       <c r="K11" s="205"/>
       <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="206"/>
-      <c r="B12" s="260" t="s">
+      <c r="B12" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="261"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="257" t="s">
+      <c r="C12" s="269"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="258"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="257" t="s">
+      <c r="G12" s="266"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="259"/>
+      <c r="J12" s="267"/>
       <c r="K12" s="205"/>
       <c r="L12" s="203"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="206"/>
-      <c r="B13" s="260" t="s">
+      <c r="B13" s="268" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="257" t="s">
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="258"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="257" t="s">
+      <c r="G13" s="266"/>
+      <c r="H13" s="267"/>
+      <c r="I13" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="259"/>
+      <c r="J13" s="267"/>
       <c r="K13" s="205"/>
       <c r="L13" s="203"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="206"/>
-      <c r="B14" s="260" t="s">
+      <c r="B14" s="268" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="257" t="s">
+      <c r="C14" s="269"/>
+      <c r="D14" s="269"/>
+      <c r="E14" s="270"/>
+      <c r="F14" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="258"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="257" t="s">
+      <c r="G14" s="266"/>
+      <c r="H14" s="267"/>
+      <c r="I14" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J14" s="259"/>
+      <c r="J14" s="267"/>
       <c r="K14" s="205"/>
       <c r="L14" s="203"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="206"/>
-      <c r="B15" s="260" t="s">
+      <c r="B15" s="268" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="261"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="257" t="s">
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="258"/>
-      <c r="H15" s="259"/>
-      <c r="I15" s="257" t="s">
+      <c r="G15" s="266"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="259"/>
+      <c r="J15" s="267"/>
       <c r="K15" s="205"/>
       <c r="L15" s="203"/>
     </row>
@@ -5692,21 +5679,21 @@
       <c r="A16" s="206">
         <v>2</v>
       </c>
-      <c r="B16" s="254" t="s">
+      <c r="B16" s="262" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="255"/>
-      <c r="D16" s="255"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="257" t="s">
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="258"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="257" t="s">
+      <c r="G16" s="266"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="259"/>
+      <c r="J16" s="267"/>
       <c r="K16" s="205"/>
       <c r="L16" s="203"/>
     </row>
@@ -5714,21 +5701,21 @@
       <c r="A17" s="207">
         <v>3</v>
       </c>
-      <c r="B17" s="263" t="s">
+      <c r="B17" s="271" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="266" t="s">
+      <c r="C17" s="272"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="274" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="267"/>
-      <c r="H17" s="268"/>
-      <c r="I17" s="266" t="s">
+      <c r="G17" s="275"/>
+      <c r="H17" s="276"/>
+      <c r="I17" s="274" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="268"/>
+      <c r="J17" s="276"/>
       <c r="K17" s="208"/>
       <c r="L17" s="203"/>
     </row>
@@ -5736,21 +5723,21 @@
       <c r="A18" s="206">
         <v>4</v>
       </c>
-      <c r="B18" s="254" t="s">
+      <c r="B18" s="262" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="255"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="257" t="s">
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="258"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="257" t="s">
+      <c r="G18" s="266"/>
+      <c r="H18" s="267"/>
+      <c r="I18" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="259"/>
+      <c r="J18" s="267"/>
       <c r="K18" s="205"/>
       <c r="L18" s="203"/>
     </row>
@@ -5758,21 +5745,21 @@
       <c r="A19" s="206">
         <v>5</v>
       </c>
-      <c r="B19" s="254" t="s">
+      <c r="B19" s="262" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="255"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="257" t="s">
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="258"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="257" t="s">
+      <c r="G19" s="266"/>
+      <c r="H19" s="267"/>
+      <c r="I19" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="259"/>
+      <c r="J19" s="267"/>
       <c r="K19" s="205"/>
       <c r="L19" s="203"/>
     </row>
@@ -5780,21 +5767,21 @@
       <c r="A20" s="206">
         <v>6</v>
       </c>
-      <c r="B20" s="254" t="s">
+      <c r="B20" s="262" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="255"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="257" t="s">
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="264"/>
+      <c r="F20" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="258"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="257" t="s">
+      <c r="G20" s="266"/>
+      <c r="H20" s="267"/>
+      <c r="I20" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="259"/>
+      <c r="J20" s="267"/>
       <c r="K20" s="205"/>
       <c r="L20" s="203"/>
     </row>
@@ -5802,21 +5789,21 @@
       <c r="A21" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="254" t="s">
+      <c r="B21" s="262" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="255"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="257" t="s">
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="264"/>
+      <c r="F21" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="258"/>
-      <c r="H21" s="259"/>
-      <c r="I21" s="257" t="s">
+      <c r="G21" s="266"/>
+      <c r="H21" s="267"/>
+      <c r="I21" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="259"/>
+      <c r="J21" s="267"/>
       <c r="K21" s="205"/>
       <c r="L21" s="203"/>
     </row>
@@ -5824,21 +5811,21 @@
       <c r="A22" s="206">
         <v>1</v>
       </c>
-      <c r="B22" s="254" t="s">
+      <c r="B22" s="262" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="255"/>
-      <c r="D22" s="255"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="257" t="s">
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="258"/>
-      <c r="H22" s="259"/>
-      <c r="I22" s="257" t="s">
+      <c r="G22" s="266"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="259"/>
+      <c r="J22" s="267"/>
       <c r="K22" s="205"/>
       <c r="L22" s="203"/>
     </row>
@@ -5846,21 +5833,21 @@
       <c r="A23" s="206">
         <v>2</v>
       </c>
-      <c r="B23" s="254" t="s">
+      <c r="B23" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="255"/>
-      <c r="D23" s="255"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="257" t="s">
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="258"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="257" t="s">
+      <c r="G23" s="266"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J23" s="259"/>
+      <c r="J23" s="267"/>
       <c r="K23" s="205"/>
       <c r="L23" s="203"/>
     </row>
@@ -5868,21 +5855,21 @@
       <c r="A24" s="206">
         <v>3</v>
       </c>
-      <c r="B24" s="254" t="s">
+      <c r="B24" s="262" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="255"/>
-      <c r="D24" s="255"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="257" t="s">
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="258"/>
-      <c r="H24" s="259"/>
-      <c r="I24" s="257" t="s">
+      <c r="G24" s="266"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="259"/>
+      <c r="J24" s="267"/>
       <c r="K24" s="205"/>
       <c r="L24" s="203"/>
     </row>
@@ -5890,21 +5877,21 @@
       <c r="A25" s="206">
         <v>4</v>
       </c>
-      <c r="B25" s="254" t="s">
+      <c r="B25" s="262" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="255"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="257" t="s">
+      <c r="C25" s="263"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="264"/>
+      <c r="F25" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="258"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="257" t="s">
+      <c r="G25" s="266"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="259"/>
+      <c r="J25" s="267"/>
       <c r="K25" s="205"/>
       <c r="L25" s="203"/>
     </row>
@@ -5912,21 +5899,21 @@
       <c r="A26" s="206">
         <v>5</v>
       </c>
-      <c r="B26" s="254" t="s">
+      <c r="B26" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="255"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="257" t="s">
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="264"/>
+      <c r="F26" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="258"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="257" t="s">
+      <c r="G26" s="266"/>
+      <c r="H26" s="267"/>
+      <c r="I26" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="259"/>
+      <c r="J26" s="267"/>
       <c r="K26" s="205"/>
       <c r="L26" s="203"/>
     </row>
@@ -5934,41 +5921,41 @@
       <c r="A27" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="254" t="s">
+      <c r="B27" s="262" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="255"/>
-      <c r="D27" s="255"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="257" t="s">
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="265" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="258"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="257" t="s">
+      <c r="G27" s="266"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="265" t="s">
         <v>103</v>
       </c>
-      <c r="J27" s="259"/>
+      <c r="J27" s="267"/>
       <c r="K27" s="205"/>
       <c r="L27" s="203"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="204"/>
-      <c r="B28" s="260" t="s">
+      <c r="B28" s="268" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="261"/>
-      <c r="D28" s="261"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="257" t="s">
+      <c r="C28" s="269"/>
+      <c r="D28" s="269"/>
+      <c r="E28" s="270"/>
+      <c r="F28" s="265" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="258"/>
-      <c r="H28" s="259"/>
-      <c r="I28" s="257" t="s">
+      <c r="G28" s="266"/>
+      <c r="H28" s="267"/>
+      <c r="I28" s="265" t="s">
         <v>138</v>
       </c>
-      <c r="J28" s="259"/>
+      <c r="J28" s="267"/>
       <c r="K28" s="205"/>
       <c r="L28" s="203"/>
     </row>
@@ -5988,63 +5975,63 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="209"/>
-      <c r="B30" s="269" t="s">
+      <c r="B30" s="254" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="270"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="271"/>
-      <c r="F30" s="272" t="s">
+      <c r="C30" s="255"/>
+      <c r="D30" s="255"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="257" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="273"/>
-      <c r="H30" s="274"/>
-      <c r="I30" s="272" t="s">
+      <c r="G30" s="258"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="274"/>
+      <c r="J30" s="259"/>
       <c r="K30" s="210"/>
       <c r="L30" s="203"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="275" t="s">
+      <c r="A31" s="260" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="275"/>
-      <c r="D31" s="284"/>
-      <c r="E31" s="285"/>
-      <c r="F31" s="285"/>
-      <c r="G31" s="277" t="s">
+      <c r="B31" s="260"/>
+      <c r="D31" s="247"/>
+      <c r="E31" s="248"/>
+      <c r="F31" s="248"/>
+      <c r="G31" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="277"/>
-      <c r="I31" s="277"/>
-      <c r="J31" s="277"/>
-      <c r="K31" s="277"/>
-      <c r="L31" s="277"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="249"/>
+      <c r="K31" s="249"/>
+      <c r="L31" s="249"/>
     </row>
     <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="276" t="s">
+      <c r="A32" s="261" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="276"/>
-      <c r="D32" s="283"/>
-      <c r="E32" s="277"/>
-      <c r="F32" s="277"/>
-      <c r="G32" s="277" t="s">
+      <c r="B32" s="261"/>
+      <c r="D32" s="245"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="277"/>
-      <c r="I32" s="277"/>
-      <c r="J32" s="277"/>
-      <c r="K32" s="277"/>
-      <c r="L32" s="277"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="249"/>
+      <c r="K32" s="249"/>
+      <c r="L32" s="249"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="276" t="s">
+      <c r="A33" s="261" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="276"/>
+      <c r="B33" s="261"/>
       <c r="D33" s="222"/>
       <c r="F33" s="222"/>
       <c r="G33" s="222"/>
@@ -6052,76 +6039,76 @@
         <v>147</v>
       </c>
       <c r="I33" s="222"/>
-      <c r="J33" s="278" t="s">
+      <c r="J33" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="K33" s="278"/>
-      <c r="L33" s="278"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="246"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="276" t="s">
+      <c r="A34" s="261" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="276"/>
+      <c r="B34" s="261"/>
       <c r="D34" s="222"/>
       <c r="F34" s="222"/>
       <c r="G34" s="222"/>
       <c r="H34" s="222"/>
       <c r="I34" s="222"/>
-      <c r="J34" s="278"/>
-      <c r="K34" s="278"/>
-      <c r="L34" s="278"/>
+      <c r="J34" s="246"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="246"/>
     </row>
     <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="279"/>
-      <c r="B35" s="279"/>
-      <c r="D35" s="282" t="s">
+      <c r="A35" s="250"/>
+      <c r="B35" s="250"/>
+      <c r="D35" s="253" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="282"/>
+      <c r="E35" s="253"/>
       <c r="F35" s="222"/>
       <c r="G35" s="222"/>
       <c r="H35" s="222"/>
       <c r="I35" s="222"/>
-      <c r="J35" s="278"/>
-      <c r="K35" s="278"/>
-      <c r="L35" s="278"/>
+      <c r="J35" s="246"/>
+      <c r="K35" s="246"/>
+      <c r="L35" s="246"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="279"/>
-      <c r="B36" s="279"/>
+      <c r="A36" s="250"/>
+      <c r="B36" s="250"/>
       <c r="D36" s="222"/>
       <c r="F36" s="222"/>
       <c r="G36" s="222"/>
       <c r="H36" s="222"/>
       <c r="I36" s="222"/>
-      <c r="J36" s="278"/>
-      <c r="K36" s="278"/>
-      <c r="L36" s="278"/>
+      <c r="J36" s="246"/>
+      <c r="K36" s="246"/>
+      <c r="L36" s="246"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="279"/>
-      <c r="B37" s="279"/>
+      <c r="A37" s="250"/>
+      <c r="B37" s="250"/>
       <c r="D37" s="212"/>
       <c r="F37" s="222"/>
       <c r="G37" s="222"/>
       <c r="H37" s="222"/>
       <c r="I37" s="222"/>
-      <c r="J37" s="278"/>
-      <c r="K37" s="278"/>
-      <c r="L37" s="278"/>
+      <c r="J37" s="246"/>
+      <c r="K37" s="246"/>
+      <c r="L37" s="246"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="279"/>
-      <c r="B38" s="279"/>
+      <c r="A38" s="250"/>
+      <c r="B38" s="250"/>
       <c r="D38" s="211"/>
       <c r="F38" s="222"/>
       <c r="G38" s="222"/>
       <c r="H38" s="222"/>
       <c r="I38" s="222"/>
-      <c r="J38" s="278"/>
-      <c r="K38" s="278"/>
-      <c r="L38" s="278"/>
+      <c r="J38" s="246"/>
+      <c r="K38" s="246"/>
+      <c r="L38" s="246"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="211"/>
@@ -6134,11 +6121,11 @@
         <v>149</v>
       </c>
       <c r="I39" s="213"/>
-      <c r="J39" s="278" t="s">
+      <c r="J39" s="246" t="s">
         <v>148</v>
       </c>
-      <c r="K39" s="278"/>
-      <c r="L39" s="278"/>
+      <c r="K39" s="246"/>
+      <c r="L39" s="246"/>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="211"/>
@@ -6152,11 +6139,11 @@
         <v>150</v>
       </c>
       <c r="I40" s="213"/>
-      <c r="J40" s="278" t="s">
+      <c r="J40" s="246" t="s">
         <v>154</v>
       </c>
-      <c r="K40" s="278"/>
-      <c r="L40" s="278"/>
+      <c r="K40" s="246"/>
+      <c r="L40" s="246"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
       <c r="D41" s="212"/>
@@ -6165,10 +6152,10 @@
       <c r="D42" s="211"/>
     </row>
     <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="283" t="s">
+      <c r="D43" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="283"/>
+      <c r="E43" s="245"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C44">
@@ -6176,23 +6163,82 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D47" s="283" t="s">
+      <c r="D47" s="245" t="s">
         <v>153</v>
       </c>
-      <c r="E47" s="283"/>
+      <c r="E47" s="245"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -6209,72 +6255,13 @@
     <mergeCell ref="J33:L38"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6285,8 +6272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6314,17 +6301,17 @@
       <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="297" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="235" t="s">
@@ -6363,26 +6350,26 @@
       <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:9" s="106" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="288" t="s">
+      <c r="A6" s="298" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="105"/>
-      <c r="C6" s="290" t="s">
+      <c r="C6" s="300" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="292" t="s">
+      <c r="D6" s="302" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="294"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="304"/>
     </row>
     <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="289"/>
+      <c r="A7" s="299"/>
       <c r="B7" s="107"/>
-      <c r="C7" s="291"/>
+      <c r="C7" s="301"/>
       <c r="D7" s="108" t="s">
         <v>75</v>
       </c>
@@ -6452,9 +6439,9 @@
       <c r="I10" s="131"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="295"/>
-      <c r="B11" s="296"/>
-      <c r="C11" s="297"/>
+      <c r="A11" s="305"/>
+      <c r="B11" s="306"/>
+      <c r="C11" s="307"/>
       <c r="D11" s="132" t="s">
         <v>68</v>
       </c>
@@ -6489,10 +6476,10 @@
       <c r="A13" s="141">
         <v>1</v>
       </c>
-      <c r="B13" s="298" t="s">
+      <c r="B13" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="299"/>
+      <c r="C13" s="288"/>
       <c r="D13" s="144"/>
       <c r="E13" s="144" t="s">
         <v>103</v>
@@ -6523,10 +6510,10 @@
       <c r="A15" s="141">
         <v>3</v>
       </c>
-      <c r="B15" s="298" t="s">
+      <c r="B15" s="287" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="299"/>
+      <c r="C15" s="288"/>
       <c r="D15" s="144"/>
       <c r="E15" s="144" t="s">
         <v>103</v>
@@ -6540,10 +6527,10 @@
       <c r="A16" s="141">
         <v>4</v>
       </c>
-      <c r="B16" s="298" t="s">
+      <c r="B16" s="287" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="299"/>
+      <c r="C16" s="288"/>
       <c r="D16" s="144"/>
       <c r="E16" s="144" t="s">
         <v>103</v>
@@ -6557,10 +6544,10 @@
       <c r="A17" s="146">
         <v>5</v>
       </c>
-      <c r="B17" s="300" t="s">
+      <c r="B17" s="291" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="301"/>
+      <c r="C17" s="292"/>
       <c r="D17" s="144"/>
       <c r="E17" s="144" t="s">
         <v>103</v>
@@ -6574,10 +6561,10 @@
       <c r="A18" s="141">
         <v>6</v>
       </c>
-      <c r="B18" s="302" t="s">
+      <c r="B18" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="303"/>
+      <c r="C18" s="294"/>
       <c r="D18" s="144"/>
       <c r="E18" s="144" t="s">
         <v>103</v>
@@ -6591,10 +6578,10 @@
       <c r="A19" s="141">
         <v>7</v>
       </c>
-      <c r="B19" s="304" t="s">
+      <c r="B19" s="295" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="305"/>
+      <c r="C19" s="296"/>
       <c r="D19" s="144"/>
       <c r="E19" s="144" t="s">
         <v>103</v>
@@ -6608,8 +6595,8 @@
       <c r="A20" s="141">
         <v>8</v>
       </c>
-      <c r="B20" s="298"/>
-      <c r="C20" s="299"/>
+      <c r="B20" s="287"/>
+      <c r="C20" s="288"/>
       <c r="D20" s="144"/>
       <c r="E20" s="144" t="s">
         <v>103</v>
@@ -6623,8 +6610,8 @@
       <c r="A21" s="141">
         <v>9</v>
       </c>
-      <c r="B21" s="298"/>
-      <c r="C21" s="299"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="288"/>
       <c r="D21" s="144"/>
       <c r="E21" s="144" t="s">
         <v>103</v>
@@ -7056,11 +7043,11 @@
       <c r="A50" s="40"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
-      <c r="D50" s="227" t="s">
+      <c r="D50" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="228"/>
-      <c r="F50" s="229"/>
+      <c r="E50" s="238"/>
+      <c r="F50" s="239"/>
       <c r="H50" s="167"/>
       <c r="I50" s="167"/>
     </row>
@@ -7080,10 +7067,10 @@
       <c r="A52" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="233" t="s">
+      <c r="B52" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="286"/>
+      <c r="C52" s="308"/>
       <c r="D52" s="100" t="s">
         <v>99</v>
       </c>
@@ -7098,10 +7085,10 @@
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
-      <c r="B53" s="233" t="s">
+      <c r="B53" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="286"/>
+      <c r="C53" s="308"/>
       <c r="D53" s="102"/>
       <c r="E53" s="102"/>
       <c r="F53" s="101"/>
@@ -7263,13 +7250,13 @@
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="167"/>
-      <c r="E65" s="307" t="s">
+      <c r="E65" s="289" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="307"/>
-      <c r="G65" s="307"/>
-      <c r="H65" s="307"/>
-      <c r="I65" s="307"/>
+      <c r="F65" s="289"/>
+      <c r="G65" s="289"/>
+      <c r="H65" s="289"/>
+      <c r="I65" s="289"/>
     </row>
     <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="165"/>
@@ -7291,13 +7278,13 @@
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="169"/>
-      <c r="E67" s="308" t="s">
+      <c r="E67" s="290" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="308"/>
-      <c r="G67" s="308"/>
-      <c r="H67" s="308"/>
-      <c r="I67" s="308"/>
+      <c r="F67" s="290"/>
+      <c r="G67" s="290"/>
+      <c r="H67" s="290"/>
+      <c r="I67" s="290"/>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="165"/>
@@ -7306,13 +7293,13 @@
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="169"/>
-      <c r="E68" s="308" t="s">
+      <c r="E68" s="290" t="s">
         <v>94</v>
       </c>
-      <c r="F68" s="308"/>
-      <c r="G68" s="308"/>
-      <c r="H68" s="308"/>
-      <c r="I68" s="308"/>
+      <c r="F68" s="290"/>
+      <c r="G68" s="290"/>
+      <c r="H68" s="290"/>
+      <c r="I68" s="290"/>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="165"/>
@@ -7336,8 +7323,8 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="165"/>
-      <c r="B71" s="224"/>
-      <c r="C71" s="224"/>
+      <c r="B71" s="231"/>
+      <c r="C71" s="231"/>
       <c r="D71" s="169"/>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -7349,10 +7336,10 @@
       <c r="A72" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="243" t="s">
+      <c r="B72" s="234" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="243"/>
+      <c r="C72" s="234"/>
       <c r="D72" s="174" t="s">
         <v>68</v>
       </c>
@@ -7370,8 +7357,8 @@
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="172"/>
-      <c r="B73" s="242"/>
-      <c r="C73" s="242"/>
+      <c r="B73" s="230"/>
+      <c r="C73" s="230"/>
       <c r="D73" s="174"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
@@ -7402,10 +7389,10 @@
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="172"/>
-      <c r="B75" s="224" t="s">
+      <c r="B75" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="224"/>
+      <c r="C75" s="231"/>
       <c r="D75" s="174"/>
       <c r="E75" s="175"/>
       <c r="F75" s="176"/>
@@ -7425,8 +7412,8 @@
       <c r="E76" s="179">
         <v>3</v>
       </c>
-      <c r="F76" s="306"/>
-      <c r="G76" s="306"/>
+      <c r="F76" s="286"/>
+      <c r="G76" s="286"/>
       <c r="H76" s="178" t="s">
         <v>95</v>
       </c>
@@ -7434,8 +7421,8 @@
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="177"/>
-      <c r="B77" s="224"/>
-      <c r="C77" s="224"/>
+      <c r="B77" s="231"/>
+      <c r="C77" s="231"/>
       <c r="D77" s="178"/>
       <c r="E77" s="179"/>
       <c r="F77" s="178"/>
@@ -7447,8 +7434,8 @@
       <c r="A78" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="242"/>
-      <c r="C78" s="242"/>
+      <c r="B78" s="230"/>
+      <c r="C78" s="230"/>
       <c r="D78" s="178" t="s">
         <v>68</v>
       </c>
@@ -7464,8 +7451,8 @@
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="177"/>
-      <c r="B79" s="242"/>
-      <c r="C79" s="242"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="230"/>
       <c r="D79" s="178"/>
       <c r="E79" s="179"/>
       <c r="F79" s="178"/>
@@ -7489,8 +7476,8 @@
       <c r="E80" s="179">
         <v>5</v>
       </c>
-      <c r="F80" s="306"/>
-      <c r="G80" s="306"/>
+      <c r="F80" s="286"/>
+      <c r="G80" s="286"/>
       <c r="H80" s="178" t="s">
         <v>95</v>
       </c>
@@ -7500,10 +7487,10 @@
       <c r="A81" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="224" t="s">
+      <c r="B81" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="224"/>
+      <c r="C81" s="231"/>
       <c r="D81" s="178"/>
       <c r="E81" s="177"/>
       <c r="F81" s="178"/>
@@ -7536,8 +7523,8 @@
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="177"/>
-      <c r="B83" s="224"/>
-      <c r="C83" s="224"/>
+      <c r="B83" s="231"/>
+      <c r="C83" s="231"/>
       <c r="D83" s="178" t="s">
         <v>68</v>
       </c>
@@ -7557,16 +7544,16 @@
       <c r="A84" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="242"/>
-      <c r="C84" s="242"/>
+      <c r="B84" s="230"/>
+      <c r="C84" s="230"/>
       <c r="D84" s="178" t="s">
         <v>68</v>
       </c>
       <c r="E84" s="179">
         <v>7</v>
       </c>
-      <c r="F84" s="306"/>
-      <c r="G84" s="306"/>
+      <c r="F84" s="286"/>
+      <c r="G84" s="286"/>
       <c r="H84" s="178" t="s">
         <v>95</v>
       </c>
@@ -7574,8 +7561,8 @@
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="177"/>
-      <c r="B85" s="242"/>
-      <c r="C85" s="242"/>
+      <c r="B85" s="230"/>
+      <c r="C85" s="230"/>
       <c r="D85" s="178" t="s">
         <v>68</v>
       </c>
@@ -7598,10 +7585,10 @@
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="177"/>
-      <c r="B87" s="224" t="s">
+      <c r="B87" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="224"/>
+      <c r="C87" s="231"/>
       <c r="D87" s="178"/>
       <c r="E87" s="178"/>
       <c r="F87" s="178"/>
@@ -7793,21 +7780,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
@@ -7819,16 +7801,21 @@
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F80:G80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
+++ b/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="255" windowWidth="9780" windowHeight="5835" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="255" windowWidth="9780" windowHeight="5835" tabRatio="602" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BA Pembukaan Penawaran Harga" sheetId="6" r:id="rId1"/>
@@ -414,9 +414,6 @@
     <t>DIBULATKAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Nomor :  047.BAPPH/520/PPBJ-D/2010, Tanggal 01 September 2010 </t>
-  </si>
-  <si>
     <t>SPPH No. : 459/SPH/TABS-PLN/IX/2010</t>
   </si>
   <si>
@@ -438,12 +435,6 @@
     <t>Tgl  ...........</t>
   </si>
   <si>
-    <t>......,  ..................20....</t>
-  </si>
-  <si>
-    <t>Panitia... Pengadaan Barang/Jasa</t>
-  </si>
-  <si>
     <t>1. .........................</t>
   </si>
   <si>
@@ -453,18 +444,12 @@
     <t>3. .........................</t>
   </si>
   <si>
-    <t>Pada hari  ......... tanggal  ..........Bulan ........... Tahun ................(.........) Jam...............0 Wib, bertempat di ............., Panitia..........Pengadaan Barang/Jasa PT. PLN (Persero) Kantor Pusat yang dibentuk sesuai Surat Keputusan Direksi Nomor : ............. tanggal  .......... telah melakukan Pembukaan Penawaran Harga Pekerjaan ......................... yang dihadiri oleh Panitia...dan Penyedia Barang/Jasa sebagai berikut :</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>LAMPIRAN BERITA ACARA PEMBUKAAN</t>
   </si>
   <si>
-    <t>PEKERJAAN ...........................</t>
-  </si>
-  <si>
     <t>PT PLN (PERSERO) KANTOR PUSAT</t>
   </si>
   <si>
@@ -528,12 +513,6 @@
     <t>TENAGA AHLI YANG DITUGASKAN</t>
   </si>
   <si>
-    <t xml:space="preserve">      .......,  ........ 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PANITIA PENGADAAN BARANG / JASA   ....</t>
-  </si>
-  <si>
     <t xml:space="preserve">          PT PLN (PERSERO KANTOR PUSAT </t>
   </si>
   <si>
@@ -570,16 +549,7 @@
     <t>(Sesuai RKS)</t>
   </si>
   <si>
-    <t xml:space="preserve">                      Lampiran: ……………………</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanggal: …………………… </t>
-  </si>
-  <si>
     <t>LAMPIRAN BERITA ACARA PEMBUKAAN PENAWARAN (DATA ADM, TEKNIS DAN HARGA PENAWARAN)</t>
-  </si>
-  <si>
-    <t>PEKERJAAN PENGADAAN  ………………………</t>
   </si>
   <si>
     <t>PERSYARATAN KELENGKAPAN DOKUMEN</t>
@@ -789,9 +759,6 @@
     <t>A/TA = Ada/Tidak Ada</t>
   </si>
   <si>
-    <t>PANITIA PENGADAAN BARANG/JASA....</t>
-  </si>
-  <si>
     <t>PT. PLN (PERSERO) KANTOR PUSAT</t>
   </si>
   <si>
@@ -884,6 +851,382 @@
   <si>
     <t>Dst....</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nomor :  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nomor#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Tanggal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgllengkap#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pada hari  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#hari#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tanggal  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tanggal#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bulan #bulan# Tahun </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tahun#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgllengkap#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) Jam </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#jam#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Wib, bertempat di </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tempat#,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#panitia#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Persero) Kantor Pusat yang dibentuk sesuai Surat Keputusan Direksi Nomor : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nosk#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tanggal  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tglsk#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> telah melakukan Pembukaan Penawaran Harga Pekerjaan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> yang dihadiri oleh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#panitia#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dan Penyedia Barang/Jasa sebagai berikut :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PEKERJAAN PENGADAAN  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tanggal: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tanggal#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PEKERJAAN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jakarta,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgllengkap#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#panitia#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PANITIA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      Jakarta, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgllengkap#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          PANITIA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Lampiran: 1 berkas</t>
+  </si>
 </sst>
 </file>
 
@@ -895,7 +1238,7 @@
     <numFmt numFmtId="164" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1092,6 +1435,45 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2834,6 +3216,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2873,12 +3261,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3002,20 +3384,53 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3033,39 +3448,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3747,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ106"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A40" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3788,28 +4170,28 @@
       <c r="I4" s="71"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="235" t="s">
+      <c r="B5" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
       <c r="I5" s="30"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="235" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
+      <c r="B6" s="237" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
       <c r="I6" s="30"/>
       <c r="J6" s="5"/>
     </row>
@@ -3826,14 +4208,14 @@
     </row>
     <row r="8" spans="2:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="236" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="236"/>
-      <c r="H8" s="236"/>
+      <c r="C8" s="238" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
       <c r="I8" s="31"/>
       <c r="J8" s="5"/>
     </row>
@@ -3853,11 +4235,11 @@
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="237" t="s">
+      <c r="F10" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="238"/>
-      <c r="H10" s="239"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="241"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -3866,9 +4248,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="242"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="244"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
     </row>
@@ -3882,13 +4264,13 @@
       <c r="D12" s="229"/>
       <c r="E12" s="229"/>
       <c r="F12" s="224" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="H12" s="224" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="224" t="s">
-        <v>58</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
@@ -3924,14 +4306,14 @@
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="243" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="243" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="243" t="s">
-        <v>60</v>
+      <c r="F15" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="230" t="s">
+        <v>59</v>
       </c>
       <c r="J15" s="9"/>
     </row>
@@ -3940,9 +4322,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3951,13 +4333,13 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="H17" s="195" t="s">
+        <v>58</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
@@ -4525,11 +4907,11 @@
       <c r="C43" s="41"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="237" t="s">
+      <c r="F43" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="238"/>
-      <c r="H43" s="239"/>
+      <c r="G43" s="240"/>
+      <c r="H43" s="241"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
@@ -4538,9 +4920,9 @@
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="240"/>
-      <c r="G44" s="241"/>
-      <c r="H44" s="242"/>
+      <c r="F44" s="242"/>
+      <c r="G44" s="243"/>
+      <c r="H44" s="244"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
     </row>
@@ -4554,13 +4936,13 @@
       <c r="D45" s="229"/>
       <c r="E45" s="229"/>
       <c r="F45" s="224" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="224" t="s">
+      <c r="H45" s="224" t="s">
         <v>57</v>
-      </c>
-      <c r="H45" s="224" t="s">
-        <v>58</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
@@ -4596,14 +4978,14 @@
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="243" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="243" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" s="243" t="s">
-        <v>60</v>
+      <c r="F48" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="230" t="s">
+        <v>59</v>
       </c>
       <c r="J48" s="9"/>
     </row>
@@ -4612,9 +4994,9 @@
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="244"/>
-      <c r="G49" s="244"/>
-      <c r="H49" s="244"/>
+      <c r="F49" s="231"/>
+      <c r="G49" s="231"/>
+      <c r="H49" s="231"/>
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:36" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4623,13 +5005,13 @@
       <c r="D50" s="90"/>
       <c r="E50" s="91"/>
       <c r="F50" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G50" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H50" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
@@ -4930,31 +5312,31 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="232" t="s">
+      <c r="B60" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="233"/>
+      <c r="C60" s="235"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="232" t="s">
+      <c r="B61" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="233"/>
+      <c r="C61" s="235"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -4981,7 +5363,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="37"/>
       <c r="F63" s="64" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G63" s="65" t="s">
         <v>42</v>
@@ -4990,10 +5372,10 @@
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="234" t="s">
+      <c r="B64" s="236" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="234"/>
+      <c r="C64" s="236"/>
       <c r="D64" s="14"/>
       <c r="E64" s="5"/>
       <c r="F64" s="66" t="s">
@@ -5013,12 +5395,12 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="231"/>
-      <c r="C66" s="231"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="233"/>
       <c r="D66" s="14"/>
       <c r="E66" s="5"/>
       <c r="F66" s="64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G66" s="65" t="s">
         <v>42</v>
@@ -5027,8 +5409,8 @@
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="230"/>
-      <c r="C67" s="230"/>
+      <c r="B67" s="232"/>
+      <c r="C67" s="232"/>
       <c r="D67" s="14"/>
       <c r="E67" s="5"/>
       <c r="F67" s="66" t="s">
@@ -5039,8 +5421,8 @@
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="230"/>
-      <c r="C68" s="230"/>
+      <c r="B68" s="232"/>
+      <c r="C68" s="232"/>
       <c r="D68" s="14"/>
       <c r="E68" s="5"/>
       <c r="F68" s="66"/>
@@ -5054,7 +5436,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="5"/>
       <c r="F69" s="64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G69" s="65" t="s">
         <v>42</v>
@@ -5063,10 +5445,10 @@
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="231" t="s">
+      <c r="B70" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="231"/>
+      <c r="C70" s="233"/>
       <c r="D70" s="14"/>
       <c r="E70" s="5"/>
       <c r="F70" s="66" t="s">
@@ -5087,8 +5469,8 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="231"/>
-      <c r="C72" s="231"/>
+      <c r="B72" s="233"/>
+      <c r="C72" s="233"/>
       <c r="D72" s="14"/>
       <c r="E72" s="5"/>
       <c r="F72" s="64"/>
@@ -5097,8 +5479,8 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="230"/>
-      <c r="C73" s="230"/>
+      <c r="B73" s="232"/>
+      <c r="C73" s="232"/>
       <c r="D73" s="14"/>
       <c r="E73" s="5"/>
       <c r="F73" s="66"/>
@@ -5107,8 +5489,8 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="230"/>
-      <c r="C74" s="230"/>
+      <c r="B74" s="232"/>
+      <c r="C74" s="232"/>
       <c r="D74" s="14"/>
       <c r="E74" s="5"/>
       <c r="F74" s="10"/>
@@ -5127,10 +5509,10 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="231" t="s">
+      <c r="B76" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="231"/>
+      <c r="C76" s="233"/>
       <c r="D76" s="14"/>
       <c r="E76" s="5"/>
       <c r="F76" s="66"/>
@@ -5149,8 +5531,8 @@
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="231"/>
-      <c r="C78" s="231"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="233"/>
       <c r="D78" s="14"/>
       <c r="E78" s="37"/>
       <c r="F78" s="64"/>
@@ -5159,8 +5541,8 @@
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B79" s="230"/>
-      <c r="C79" s="230"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="232"/>
       <c r="D79" s="14"/>
       <c r="E79" s="5"/>
       <c r="F79" s="66"/>
@@ -5169,8 +5551,8 @@
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="230"/>
-      <c r="C80" s="230"/>
+      <c r="B80" s="232"/>
+      <c r="C80" s="232"/>
       <c r="D80" s="14"/>
       <c r="E80" s="5"/>
       <c r="F80" s="66"/>
@@ -5189,10 +5571,10 @@
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B82" s="231" t="s">
+      <c r="B82" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="231"/>
+      <c r="C82" s="233"/>
       <c r="D82" s="27"/>
       <c r="E82" s="5"/>
       <c r="F82" s="66"/>
@@ -5435,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5446,12 +5828,12 @@
   <sheetData>
     <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J2" s="199" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J3" s="199" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
@@ -5459,7 +5841,7 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="251" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B5" s="251"/>
       <c r="C5" s="251"/>
@@ -5474,7 +5856,7 @@
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="252" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="B6" s="252"/>
       <c r="C6" s="252"/>
@@ -5489,38 +5871,38 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="201" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B7" s="277" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C7" s="278"/>
       <c r="D7" s="278"/>
       <c r="E7" s="279"/>
       <c r="F7" s="277" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G7" s="278"/>
       <c r="H7" s="279"/>
       <c r="I7" s="277" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J7" s="279"/>
       <c r="K7" s="202" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="204"/>
       <c r="B8" s="280" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C8" s="281"/>
       <c r="D8" s="281"/>
       <c r="E8" s="282"/>
       <c r="F8" s="283" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G8" s="284"/>
       <c r="H8" s="285"/>
@@ -5536,18 +5918,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="262" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C9" s="263"/>
       <c r="D9" s="263"/>
       <c r="E9" s="264"/>
       <c r="F9" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G9" s="266"/>
       <c r="H9" s="267"/>
       <c r="I9" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J9" s="267"/>
       <c r="K9" s="205"/>
@@ -5558,18 +5940,18 @@
         <v>1</v>
       </c>
       <c r="B10" s="262" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C10" s="263"/>
       <c r="D10" s="263"/>
       <c r="E10" s="264"/>
       <c r="F10" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G10" s="266"/>
       <c r="H10" s="267"/>
       <c r="I10" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J10" s="267"/>
       <c r="K10" s="205"/>
@@ -5578,18 +5960,18 @@
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="206"/>
       <c r="B11" s="268" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C11" s="269"/>
       <c r="D11" s="269"/>
       <c r="E11" s="270"/>
       <c r="F11" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G11" s="266"/>
       <c r="H11" s="267"/>
       <c r="I11" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J11" s="267"/>
       <c r="K11" s="205"/>
@@ -5598,18 +5980,18 @@
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="206"/>
       <c r="B12" s="268" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C12" s="269"/>
       <c r="D12" s="269"/>
       <c r="E12" s="270"/>
       <c r="F12" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G12" s="266"/>
       <c r="H12" s="267"/>
       <c r="I12" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J12" s="267"/>
       <c r="K12" s="205"/>
@@ -5618,18 +6000,18 @@
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="206"/>
       <c r="B13" s="268" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C13" s="269"/>
       <c r="D13" s="269"/>
       <c r="E13" s="270"/>
       <c r="F13" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G13" s="266"/>
       <c r="H13" s="267"/>
       <c r="I13" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J13" s="267"/>
       <c r="K13" s="205"/>
@@ -5638,18 +6020,18 @@
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="206"/>
       <c r="B14" s="268" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C14" s="269"/>
       <c r="D14" s="269"/>
       <c r="E14" s="270"/>
       <c r="F14" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G14" s="266"/>
       <c r="H14" s="267"/>
       <c r="I14" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J14" s="267"/>
       <c r="K14" s="205"/>
@@ -5658,18 +6040,18 @@
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="206"/>
       <c r="B15" s="268" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C15" s="269"/>
       <c r="D15" s="269"/>
       <c r="E15" s="270"/>
       <c r="F15" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G15" s="266"/>
       <c r="H15" s="267"/>
       <c r="I15" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J15" s="267"/>
       <c r="K15" s="205"/>
@@ -5680,18 +6062,18 @@
         <v>2</v>
       </c>
       <c r="B16" s="262" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C16" s="263"/>
       <c r="D16" s="263"/>
       <c r="E16" s="264"/>
       <c r="F16" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G16" s="266"/>
       <c r="H16" s="267"/>
       <c r="I16" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J16" s="267"/>
       <c r="K16" s="205"/>
@@ -5702,18 +6084,18 @@
         <v>3</v>
       </c>
       <c r="B17" s="271" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C17" s="272"/>
       <c r="D17" s="272"/>
       <c r="E17" s="273"/>
       <c r="F17" s="274" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G17" s="275"/>
       <c r="H17" s="276"/>
       <c r="I17" s="274" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J17" s="276"/>
       <c r="K17" s="208"/>
@@ -5724,18 +6106,18 @@
         <v>4</v>
       </c>
       <c r="B18" s="262" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C18" s="263"/>
       <c r="D18" s="263"/>
       <c r="E18" s="264"/>
       <c r="F18" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G18" s="266"/>
       <c r="H18" s="267"/>
       <c r="I18" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J18" s="267"/>
       <c r="K18" s="205"/>
@@ -5746,18 +6128,18 @@
         <v>5</v>
       </c>
       <c r="B19" s="262" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C19" s="263"/>
       <c r="D19" s="263"/>
       <c r="E19" s="264"/>
       <c r="F19" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G19" s="266"/>
       <c r="H19" s="267"/>
       <c r="I19" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J19" s="267"/>
       <c r="K19" s="205"/>
@@ -5768,18 +6150,18 @@
         <v>6</v>
       </c>
       <c r="B20" s="262" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C20" s="263"/>
       <c r="D20" s="263"/>
       <c r="E20" s="264"/>
       <c r="F20" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G20" s="266"/>
       <c r="H20" s="267"/>
       <c r="I20" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J20" s="267"/>
       <c r="K20" s="205"/>
@@ -5790,18 +6172,18 @@
         <v>5</v>
       </c>
       <c r="B21" s="262" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C21" s="263"/>
       <c r="D21" s="263"/>
       <c r="E21" s="264"/>
       <c r="F21" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G21" s="266"/>
       <c r="H21" s="267"/>
       <c r="I21" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J21" s="267"/>
       <c r="K21" s="205"/>
@@ -5812,18 +6194,18 @@
         <v>1</v>
       </c>
       <c r="B22" s="262" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C22" s="263"/>
       <c r="D22" s="263"/>
       <c r="E22" s="264"/>
       <c r="F22" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G22" s="266"/>
       <c r="H22" s="267"/>
       <c r="I22" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J22" s="267"/>
       <c r="K22" s="205"/>
@@ -5834,18 +6216,18 @@
         <v>2</v>
       </c>
       <c r="B23" s="262" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C23" s="263"/>
       <c r="D23" s="263"/>
       <c r="E23" s="264"/>
       <c r="F23" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G23" s="266"/>
       <c r="H23" s="267"/>
       <c r="I23" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J23" s="267"/>
       <c r="K23" s="205"/>
@@ -5856,18 +6238,18 @@
         <v>3</v>
       </c>
       <c r="B24" s="262" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C24" s="263"/>
       <c r="D24" s="263"/>
       <c r="E24" s="264"/>
       <c r="F24" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G24" s="266"/>
       <c r="H24" s="267"/>
       <c r="I24" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J24" s="267"/>
       <c r="K24" s="205"/>
@@ -5878,18 +6260,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C25" s="263"/>
       <c r="D25" s="263"/>
       <c r="E25" s="264"/>
       <c r="F25" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G25" s="266"/>
       <c r="H25" s="267"/>
       <c r="I25" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J25" s="267"/>
       <c r="K25" s="205"/>
@@ -5900,18 +6282,18 @@
         <v>5</v>
       </c>
       <c r="B26" s="262" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C26" s="263"/>
       <c r="D26" s="263"/>
       <c r="E26" s="264"/>
       <c r="F26" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G26" s="266"/>
       <c r="H26" s="267"/>
       <c r="I26" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J26" s="267"/>
       <c r="K26" s="205"/>
@@ -5922,18 +6304,18 @@
         <v>6</v>
       </c>
       <c r="B27" s="262" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C27" s="263"/>
       <c r="D27" s="263"/>
       <c r="E27" s="264"/>
       <c r="F27" s="265" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G27" s="266"/>
       <c r="H27" s="267"/>
       <c r="I27" s="265" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J27" s="267"/>
       <c r="K27" s="205"/>
@@ -5942,18 +6324,18 @@
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="204"/>
       <c r="B28" s="268" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C28" s="269"/>
       <c r="D28" s="269"/>
       <c r="E28" s="270"/>
       <c r="F28" s="265" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G28" s="266"/>
       <c r="H28" s="267"/>
       <c r="I28" s="265" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J28" s="267"/>
       <c r="K28" s="205"/>
@@ -5976,13 +6358,13 @@
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="209"/>
       <c r="B30" s="254" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C30" s="255"/>
       <c r="D30" s="255"/>
       <c r="E30" s="256"/>
       <c r="F30" s="257" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G30" s="258"/>
       <c r="H30" s="259"/>
@@ -5995,14 +6377,14 @@
     </row>
     <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="260" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B31" s="260"/>
       <c r="D31" s="247"/>
       <c r="E31" s="248"/>
       <c r="F31" s="248"/>
       <c r="G31" s="249" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H31" s="249"/>
       <c r="I31" s="249"/>
@@ -6012,14 +6394,14 @@
     </row>
     <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="261" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B32" s="261"/>
       <c r="D32" s="245"/>
       <c r="E32" s="249"/>
       <c r="F32" s="249"/>
       <c r="G32" s="249" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H32" s="249"/>
       <c r="I32" s="249"/>
@@ -6029,25 +6411,25 @@
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="261" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B33" s="261"/>
       <c r="D33" s="222"/>
       <c r="F33" s="222"/>
       <c r="G33" s="222"/>
       <c r="H33" s="222" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I33" s="222"/>
       <c r="J33" s="246" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K33" s="246"/>
       <c r="L33" s="246"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="261" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B34" s="261"/>
       <c r="D34" s="222"/>
@@ -6063,7 +6445,7 @@
       <c r="A35" s="250"/>
       <c r="B35" s="250"/>
       <c r="D35" s="253" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E35" s="253"/>
       <c r="F35" s="222"/>
@@ -6113,16 +6495,16 @@
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="211"/>
       <c r="D39" s="212" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F39" s="222"/>
       <c r="G39" s="222"/>
       <c r="H39" s="222" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="I39" s="213"/>
       <c r="J39" s="246" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K39" s="246"/>
       <c r="L39" s="246"/>
@@ -6136,11 +6518,11 @@
       <c r="F40" s="222"/>
       <c r="G40" s="222"/>
       <c r="H40" s="222" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="I40" s="213"/>
       <c r="J40" s="246" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K40" s="246"/>
       <c r="L40" s="246"/>
@@ -6153,7 +6535,7 @@
     </row>
     <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="245" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E43" s="245"/>
     </row>
@@ -6164,7 +6546,7 @@
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
       <c r="D47" s="245" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E47" s="245"/>
     </row>
@@ -6272,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6293,7 +6675,7 @@
       <c r="B1" s="197"/>
       <c r="C1" s="198"/>
       <c r="D1" s="103" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
@@ -6301,43 +6683,43 @@
       <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="297" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
+      <c r="A2" s="291" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="235" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-      <c r="H3" s="235"/>
-      <c r="I3" s="235"/>
+      <c r="A3" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="235" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
+      <c r="A4" s="237" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104"/>
@@ -6350,37 +6732,37 @@
       <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:9" s="106" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="298" t="s">
+      <c r="A6" s="292" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="297"/>
+      <c r="H6" s="297"/>
+      <c r="I6" s="298"/>
+    </row>
+    <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="293"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="109" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="300" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="302" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="304"/>
-    </row>
-    <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="299"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="109" t="s">
-        <v>77</v>
       </c>
       <c r="H7" s="109"/>
       <c r="I7" s="110"/>
@@ -6414,11 +6796,11 @@
     </row>
     <row r="9" spans="1:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="119"/>
       <c r="C9" s="120" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D9" s="121"/>
       <c r="E9" s="122"/>
@@ -6439,26 +6821,26 @@
       <c r="I10" s="131"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="305"/>
-      <c r="B11" s="306"/>
-      <c r="C11" s="307"/>
+      <c r="A11" s="299"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="301"/>
       <c r="D11" s="132" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" s="132" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -6476,13 +6858,13 @@
       <c r="A13" s="141">
         <v>1</v>
       </c>
-      <c r="B13" s="287" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="288"/>
+      <c r="B13" s="286" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="287"/>
       <c r="D13" s="144"/>
       <c r="E13" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F13" s="144"/>
       <c r="G13" s="144"/>
@@ -6494,12 +6876,12 @@
         <v>2</v>
       </c>
       <c r="B14" s="142" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14" s="143"/>
       <c r="D14" s="144"/>
       <c r="E14" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F14" s="144"/>
       <c r="G14" s="144"/>
@@ -6510,13 +6892,13 @@
       <c r="A15" s="141">
         <v>3</v>
       </c>
-      <c r="B15" s="287" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="288"/>
+      <c r="B15" s="286" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="287"/>
       <c r="D15" s="144"/>
       <c r="E15" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F15" s="144"/>
       <c r="G15" s="144"/>
@@ -6527,13 +6909,13 @@
       <c r="A16" s="141">
         <v>4</v>
       </c>
-      <c r="B16" s="287" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="288"/>
+      <c r="B16" s="286" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="287"/>
       <c r="D16" s="144"/>
       <c r="E16" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F16" s="144"/>
       <c r="G16" s="144"/>
@@ -6544,13 +6926,13 @@
       <c r="A17" s="146">
         <v>5</v>
       </c>
-      <c r="B17" s="291" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="292"/>
+      <c r="B17" s="302" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="303"/>
       <c r="D17" s="144"/>
       <c r="E17" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F17" s="144"/>
       <c r="G17" s="144"/>
@@ -6561,13 +6943,13 @@
       <c r="A18" s="141">
         <v>6</v>
       </c>
-      <c r="B18" s="293" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="294"/>
+      <c r="B18" s="304" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="305"/>
       <c r="D18" s="144"/>
       <c r="E18" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F18" s="144"/>
       <c r="G18" s="144"/>
@@ -6578,13 +6960,13 @@
       <c r="A19" s="141">
         <v>7</v>
       </c>
-      <c r="B19" s="295" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="296"/>
+      <c r="B19" s="306" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="307"/>
       <c r="D19" s="144"/>
       <c r="E19" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F19" s="144"/>
       <c r="G19" s="144"/>
@@ -6595,11 +6977,11 @@
       <c r="A20" s="141">
         <v>8</v>
       </c>
-      <c r="B20" s="287"/>
-      <c r="C20" s="288"/>
+      <c r="B20" s="286"/>
+      <c r="C20" s="287"/>
       <c r="D20" s="144"/>
       <c r="E20" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F20" s="144"/>
       <c r="G20" s="144"/>
@@ -6610,11 +6992,11 @@
       <c r="A21" s="141">
         <v>9</v>
       </c>
-      <c r="B21" s="287"/>
-      <c r="C21" s="288"/>
+      <c r="B21" s="286"/>
+      <c r="C21" s="287"/>
       <c r="D21" s="144"/>
       <c r="E21" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F21" s="144"/>
       <c r="G21" s="144"/>
@@ -6629,7 +7011,7 @@
       <c r="C22" s="143"/>
       <c r="D22" s="144"/>
       <c r="E22" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F22" s="144"/>
       <c r="G22" s="144"/>
@@ -6644,7 +7026,7 @@
       <c r="C23" s="148"/>
       <c r="D23" s="144"/>
       <c r="E23" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F23" s="144"/>
       <c r="G23" s="144"/>
@@ -6659,7 +7041,7 @@
       <c r="C24" s="148"/>
       <c r="D24" s="144"/>
       <c r="E24" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F24" s="144"/>
       <c r="G24" s="144"/>
@@ -6674,7 +7056,7 @@
       <c r="C25" s="143"/>
       <c r="D25" s="144"/>
       <c r="E25" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F25" s="144"/>
       <c r="G25" s="144"/>
@@ -6689,7 +7071,7 @@
       <c r="C26" s="143"/>
       <c r="D26" s="144"/>
       <c r="E26" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="144"/>
@@ -6704,7 +7086,7 @@
       <c r="C27" s="143"/>
       <c r="D27" s="144"/>
       <c r="E27" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F27" s="144"/>
       <c r="G27" s="144"/>
@@ -6719,7 +7101,7 @@
       <c r="C28" s="143"/>
       <c r="D28" s="144"/>
       <c r="E28" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F28" s="144"/>
       <c r="G28" s="144"/>
@@ -6734,7 +7116,7 @@
       <c r="C29" s="143"/>
       <c r="D29" s="144"/>
       <c r="E29" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F29" s="144"/>
       <c r="G29" s="144"/>
@@ -6749,7 +7131,7 @@
       <c r="C30" s="143"/>
       <c r="D30" s="144"/>
       <c r="E30" s="144" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F30" s="144"/>
       <c r="G30" s="144"/>
@@ -6758,34 +7140,34 @@
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="141" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B31" s="142"/>
       <c r="C31" s="143"/>
       <c r="D31" s="150" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E31" s="150" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F31" s="150" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H31" s="150" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I31" s="151" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="186"/>
       <c r="C32" s="162" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D32" s="189"/>
       <c r="E32" s="190" t="s">
@@ -6809,11 +7191,11 @@
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="181" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" s="182"/>
       <c r="C34" s="180" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D34" s="152"/>
       <c r="E34" s="152"/>
@@ -6828,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="154" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D35" s="144"/>
       <c r="E35" s="144" t="s">
@@ -6845,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="156" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D36" s="144"/>
       <c r="E36" s="144" t="s">
@@ -6862,7 +7244,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="223" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D37" s="144"/>
       <c r="E37" s="144"/>
@@ -6877,7 +7259,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="156" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D38" s="144"/>
       <c r="E38" s="144"/>
@@ -6892,7 +7274,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="156" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D39" s="144"/>
       <c r="E39" s="144"/>
@@ -6907,7 +7289,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="156" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D40" s="144"/>
       <c r="E40" s="144"/>
@@ -6922,7 +7304,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="156" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D41" s="144"/>
       <c r="E41" s="144"/>
@@ -6937,7 +7319,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="156" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D42" s="144"/>
       <c r="E42" s="144"/>
@@ -6952,7 +7334,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="156" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D43" s="144"/>
       <c r="E43" s="144"/>
@@ -6991,10 +7373,10 @@
       <c r="A46" s="149"/>
       <c r="B46" s="157"/>
       <c r="C46" s="159" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D46" s="150" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E46" s="150"/>
       <c r="F46" s="150"/>
@@ -7006,7 +7388,7 @@
       <c r="A47" s="160"/>
       <c r="B47" s="161"/>
       <c r="C47" s="194" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D47" s="163"/>
       <c r="E47" s="163" t="s">
@@ -7043,11 +7425,11 @@
       <c r="A50" s="40"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
-      <c r="D50" s="237" t="s">
+      <c r="D50" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="238"/>
-      <c r="F50" s="239"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="241"/>
       <c r="H50" s="167"/>
       <c r="I50" s="167"/>
     </row>
@@ -7072,13 +7454,13 @@
       </c>
       <c r="C52" s="308"/>
       <c r="D52" s="100" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E52" s="100" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F52" s="100" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H52" s="167"/>
       <c r="I52" s="167"/>
@@ -7086,7 +7468,7 @@
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="228" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C53" s="308"/>
       <c r="D53" s="102"/>
@@ -7100,13 +7482,13 @@
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="95" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E54" s="192" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="167"/>
       <c r="I54" s="167"/>
@@ -7126,13 +7508,13 @@
       <c r="B56" s="89"/>
       <c r="C56" s="90"/>
       <c r="D56" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F56" s="195" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H56" s="167"/>
       <c r="I56" s="167"/>
@@ -7250,13 +7632,13 @@
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="167"/>
-      <c r="E65" s="289" t="s">
-        <v>92</v>
-      </c>
-      <c r="F65" s="289"/>
-      <c r="G65" s="289"/>
-      <c r="H65" s="289"/>
-      <c r="I65" s="289"/>
+      <c r="E65" s="288" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" s="288"/>
+      <c r="G65" s="288"/>
+      <c r="H65" s="288"/>
+      <c r="I65" s="288"/>
     </row>
     <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="165"/>
@@ -7278,13 +7660,13 @@
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="169"/>
-      <c r="E67" s="290" t="s">
-        <v>93</v>
-      </c>
-      <c r="F67" s="290"/>
-      <c r="G67" s="290"/>
-      <c r="H67" s="290"/>
-      <c r="I67" s="290"/>
+      <c r="E67" s="289" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="289"/>
+      <c r="G67" s="289"/>
+      <c r="H67" s="289"/>
+      <c r="I67" s="289"/>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="165"/>
@@ -7293,13 +7675,13 @@
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="169"/>
-      <c r="E68" s="290" t="s">
-        <v>94</v>
-      </c>
-      <c r="F68" s="290"/>
-      <c r="G68" s="290"/>
-      <c r="H68" s="290"/>
-      <c r="I68" s="290"/>
+      <c r="E68" s="289" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="289"/>
+      <c r="G68" s="289"/>
+      <c r="H68" s="289"/>
+      <c r="I68" s="289"/>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="165"/>
@@ -7323,8 +7705,8 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="165"/>
-      <c r="B71" s="231"/>
-      <c r="C71" s="231"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="233"/>
       <c r="D71" s="169"/>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -7334,48 +7716,48 @@
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="172" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="234" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="236" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="234"/>
+      <c r="C72" s="236"/>
       <c r="D72" s="174" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E72" s="175">
         <v>1</v>
       </c>
       <c r="F72" s="176"/>
       <c r="G72" s="176" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H72" s="176" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I72" s="173"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="172"/>
-      <c r="B73" s="230"/>
-      <c r="C73" s="230"/>
+      <c r="B73" s="232"/>
+      <c r="C73" s="232"/>
       <c r="D73" s="174"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="176" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H73" s="176"/>
       <c r="I73" s="173"/>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="172" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="66"/>
       <c r="D74" s="174" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E74" s="175">
         <v>2</v>
@@ -7384,15 +7766,15 @@
       <c r="G74" s="176"/>
       <c r="H74" s="176"/>
       <c r="I74" s="173" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="172"/>
-      <c r="B75" s="231" t="s">
+      <c r="B75" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="231"/>
+      <c r="C75" s="233"/>
       <c r="D75" s="174"/>
       <c r="E75" s="175"/>
       <c r="F75" s="176"/>
@@ -7402,27 +7784,27 @@
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="177" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="66"/>
       <c r="D76" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E76" s="179">
         <v>3</v>
       </c>
-      <c r="F76" s="286"/>
-      <c r="G76" s="286"/>
+      <c r="F76" s="290"/>
+      <c r="G76" s="290"/>
       <c r="H76" s="178" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I76" s="178"/>
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="177"/>
-      <c r="B77" s="231"/>
-      <c r="C77" s="231"/>
+      <c r="B77" s="233"/>
+      <c r="C77" s="233"/>
       <c r="D77" s="178"/>
       <c r="E77" s="179"/>
       <c r="F77" s="178"/>
@@ -7432,12 +7814,12 @@
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="177" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="230"/>
-      <c r="C78" s="230"/>
+        <v>64</v>
+      </c>
+      <c r="B78" s="232"/>
+      <c r="C78" s="232"/>
       <c r="D78" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E78" s="179">
         <v>4</v>
@@ -7446,70 +7828,70 @@
       <c r="G78" s="178"/>
       <c r="H78" s="178"/>
       <c r="I78" s="178" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="177"/>
-      <c r="B79" s="230"/>
-      <c r="C79" s="230"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="232"/>
       <c r="D79" s="178"/>
       <c r="E79" s="179"/>
       <c r="F79" s="178"/>
       <c r="G79" s="178"/>
       <c r="H79" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I79" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="177" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="66"/>
       <c r="D80" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E80" s="179">
         <v>5</v>
       </c>
-      <c r="F80" s="286"/>
-      <c r="G80" s="286"/>
+      <c r="F80" s="290"/>
+      <c r="G80" s="290"/>
       <c r="H80" s="178" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I80" s="178"/>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="177" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="231" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="231"/>
+      <c r="C81" s="233"/>
       <c r="D81" s="178"/>
       <c r="E81" s="177"/>
       <c r="F81" s="178"/>
       <c r="G81" s="178"/>
       <c r="H81" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I81" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="177" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="35"/>
       <c r="D82" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E82" s="179">
         <v>6</v>
@@ -7518,53 +7900,53 @@
       <c r="G82" s="178"/>
       <c r="H82" s="178"/>
       <c r="I82" s="178" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="177"/>
-      <c r="B83" s="231"/>
-      <c r="C83" s="231"/>
+      <c r="B83" s="233"/>
+      <c r="C83" s="233"/>
       <c r="D83" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E83" s="179" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="178"/>
       <c r="G83" s="178"/>
       <c r="H83" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I83" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="177" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="230"/>
-      <c r="C84" s="230"/>
+        <v>64</v>
+      </c>
+      <c r="B84" s="232"/>
+      <c r="C84" s="232"/>
       <c r="D84" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E84" s="179">
         <v>7</v>
       </c>
-      <c r="F84" s="286"/>
-      <c r="G84" s="286"/>
+      <c r="F84" s="290"/>
+      <c r="G84" s="290"/>
       <c r="H84" s="178" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I84" s="178"/>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="177"/>
-      <c r="B85" s="230"/>
-      <c r="C85" s="230"/>
+      <c r="B85" s="232"/>
+      <c r="C85" s="232"/>
       <c r="D85" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E85" s="178"/>
       <c r="F85" s="179"/>
@@ -7585,10 +7967,10 @@
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="177"/>
-      <c r="B87" s="231" t="s">
+      <c r="B87" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="231"/>
+      <c r="C87" s="233"/>
       <c r="D87" s="178"/>
       <c r="E87" s="178"/>
       <c r="F87" s="178"/>
@@ -7636,7 +8018,7 @@
       <c r="D91" s="178"/>
       <c r="E91" s="178"/>
       <c r="F91" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G91" s="178"/>
       <c r="H91" s="178"/>
@@ -7661,7 +8043,7 @@
       <c r="E93" s="178"/>
       <c r="F93" s="178"/>
       <c r="G93" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H93" s="178"/>
       <c r="I93" s="178"/>
@@ -7737,7 +8119,7 @@
       <c r="B100" s="178"/>
       <c r="C100" s="178"/>
       <c r="D100" s="178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E100" s="178"/>
       <c r="F100" s="178"/>
@@ -7790,6 +8172,8 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B77:C77"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
@@ -7806,8 +8190,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="B84:C84"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="E65:I65"/>
     <mergeCell ref="B81:C81"/>

--- a/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
+++ b/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
@@ -1103,30 +1103,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Tanggal: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tanggal#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">PEKERJAAN </t>
     </r>
     <r>
@@ -1226,6 +1202,30 @@
   </si>
   <si>
     <t xml:space="preserve">                      Lampiran: 1 berkas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tanggal: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgllengkap#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3198,6 +3198,48 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3210,179 +3252,143 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3390,67 +3396,61 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4170,28 +4170,28 @@
       <c r="I4" s="71"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
       <c r="I5" s="30"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="237" t="s">
+      <c r="B6" s="224" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
       <c r="I6" s="30"/>
       <c r="J6" s="5"/>
     </row>
@@ -4208,14 +4208,14 @@
     </row>
     <row r="8" spans="2:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="238" t="s">
+      <c r="C8" s="225" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
       <c r="I8" s="31"/>
       <c r="J8" s="5"/>
     </row>
@@ -4235,11 +4235,11 @@
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="239" t="s">
+      <c r="F10" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="240"/>
-      <c r="H10" s="241"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="230"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -4248,9 +4248,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="244"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="232"/>
+      <c r="H11" s="233"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
     </row>
@@ -4258,18 +4258,18 @@
       <c r="B12" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="228" t="s">
+      <c r="C12" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="224" t="s">
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="224" t="s">
+      <c r="G12" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="224" t="s">
+      <c r="H12" s="238" t="s">
         <v>57</v>
       </c>
       <c r="I12" s="10"/>
@@ -4279,25 +4279,25 @@
       <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="228"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="225"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="239"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="239"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="45"/>
-      <c r="C14" s="228" t="s">
+      <c r="C14" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="226"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
       <c r="I14" s="12"/>
       <c r="J14" s="9"/>
     </row>
@@ -4306,13 +4306,13 @@
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="230" t="s">
+      <c r="F15" s="236" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="230" t="s">
+      <c r="G15" s="236" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="230" t="s">
+      <c r="H15" s="236" t="s">
         <v>59</v>
       </c>
       <c r="J15" s="9"/>
@@ -4322,9 +4322,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="231"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="231"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4907,11 +4907,11 @@
       <c r="C43" s="41"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="239" t="s">
+      <c r="F43" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="241"/>
+      <c r="G43" s="229"/>
+      <c r="H43" s="230"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
@@ -4920,9 +4920,9 @@
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="242"/>
-      <c r="G44" s="243"/>
-      <c r="H44" s="244"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="232"/>
+      <c r="H44" s="233"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
     </row>
@@ -4930,18 +4930,18 @@
       <c r="B45" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="228" t="s">
+      <c r="C45" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="229"/>
-      <c r="E45" s="229"/>
-      <c r="F45" s="224" t="s">
+      <c r="D45" s="235"/>
+      <c r="E45" s="235"/>
+      <c r="F45" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="224" t="s">
+      <c r="G45" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="224" t="s">
+      <c r="H45" s="238" t="s">
         <v>57</v>
       </c>
       <c r="I45" s="10"/>
@@ -4951,25 +4951,25 @@
       <c r="B46" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="228"/>
-      <c r="D46" s="229"/>
-      <c r="E46" s="229"/>
-      <c r="F46" s="225"/>
-      <c r="G46" s="225"/>
-      <c r="H46" s="225"/>
+      <c r="C46" s="234"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="239"/>
+      <c r="G46" s="239"/>
+      <c r="H46" s="239"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="2:36" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="45"/>
-      <c r="C47" s="228" t="s">
+      <c r="C47" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="229"/>
-      <c r="E47" s="229"/>
-      <c r="F47" s="226"/>
-      <c r="G47" s="226"/>
-      <c r="H47" s="226"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="240"/>
+      <c r="G47" s="240"/>
+      <c r="H47" s="240"/>
       <c r="I47" s="12"/>
       <c r="J47" s="9"/>
     </row>
@@ -4978,13 +4978,13 @@
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="230" t="s">
+      <c r="F48" s="236" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="230" t="s">
+      <c r="G48" s="236" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="230" t="s">
+      <c r="H48" s="236" t="s">
         <v>59</v>
       </c>
       <c r="J48" s="9"/>
@@ -4994,9 +4994,9 @@
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="231"/>
-      <c r="G49" s="231"/>
-      <c r="H49" s="231"/>
+      <c r="F49" s="237"/>
+      <c r="G49" s="237"/>
+      <c r="H49" s="237"/>
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:36" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5312,31 +5312,31 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="234" t="s">
+      <c r="B60" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="235"/>
+      <c r="C60" s="227"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="234" t="s">
+      <c r="B61" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="235"/>
+      <c r="C61" s="227"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -5372,10 +5372,10 @@
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="236" t="s">
+      <c r="B64" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="236"/>
+      <c r="C64" s="244"/>
       <c r="D64" s="14"/>
       <c r="E64" s="5"/>
       <c r="F64" s="66" t="s">
@@ -5395,8 +5395,8 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="233"/>
-      <c r="C66" s="233"/>
+      <c r="B66" s="243"/>
+      <c r="C66" s="243"/>
       <c r="D66" s="14"/>
       <c r="E66" s="5"/>
       <c r="F66" s="64" t="s">
@@ -5409,8 +5409,8 @@
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="232"/>
-      <c r="C67" s="232"/>
+      <c r="B67" s="242"/>
+      <c r="C67" s="242"/>
       <c r="D67" s="14"/>
       <c r="E67" s="5"/>
       <c r="F67" s="66" t="s">
@@ -5421,8 +5421,8 @@
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="232"/>
-      <c r="C68" s="232"/>
+      <c r="B68" s="242"/>
+      <c r="C68" s="242"/>
       <c r="D68" s="14"/>
       <c r="E68" s="5"/>
       <c r="F68" s="66"/>
@@ -5445,10 +5445,10 @@
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="233" t="s">
+      <c r="B70" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="233"/>
+      <c r="C70" s="243"/>
       <c r="D70" s="14"/>
       <c r="E70" s="5"/>
       <c r="F70" s="66" t="s">
@@ -5469,8 +5469,8 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="233"/>
-      <c r="C72" s="233"/>
+      <c r="B72" s="243"/>
+      <c r="C72" s="243"/>
       <c r="D72" s="14"/>
       <c r="E72" s="5"/>
       <c r="F72" s="64"/>
@@ -5479,8 +5479,8 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="232"/>
-      <c r="C73" s="232"/>
+      <c r="B73" s="242"/>
+      <c r="C73" s="242"/>
       <c r="D73" s="14"/>
       <c r="E73" s="5"/>
       <c r="F73" s="66"/>
@@ -5489,8 +5489,8 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="232"/>
-      <c r="C74" s="232"/>
+      <c r="B74" s="242"/>
+      <c r="C74" s="242"/>
       <c r="D74" s="14"/>
       <c r="E74" s="5"/>
       <c r="F74" s="10"/>
@@ -5509,10 +5509,10 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="233" t="s">
+      <c r="B76" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="233"/>
+      <c r="C76" s="243"/>
       <c r="D76" s="14"/>
       <c r="E76" s="5"/>
       <c r="F76" s="66"/>
@@ -5531,8 +5531,8 @@
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="233"/>
-      <c r="C78" s="233"/>
+      <c r="B78" s="243"/>
+      <c r="C78" s="243"/>
       <c r="D78" s="14"/>
       <c r="E78" s="37"/>
       <c r="F78" s="64"/>
@@ -5541,8 +5541,8 @@
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B79" s="232"/>
-      <c r="C79" s="232"/>
+      <c r="B79" s="242"/>
+      <c r="C79" s="242"/>
       <c r="D79" s="14"/>
       <c r="E79" s="5"/>
       <c r="F79" s="66"/>
@@ -5551,8 +5551,8 @@
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="232"/>
-      <c r="C80" s="232"/>
+      <c r="B80" s="242"/>
+      <c r="C80" s="242"/>
       <c r="D80" s="14"/>
       <c r="E80" s="5"/>
       <c r="F80" s="66"/>
@@ -5571,10 +5571,10 @@
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B82" s="233" t="s">
+      <c r="B82" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="233"/>
+      <c r="C82" s="243"/>
       <c r="D82" s="27"/>
       <c r="E82" s="5"/>
       <c r="F82" s="66"/>
@@ -5738,13 +5738,13 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="227"/>
+      <c r="C102" s="241"/>
+      <c r="D102" s="241"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
-      <c r="C103" s="227"/>
-      <c r="D103" s="227"/>
+      <c r="C103" s="241"/>
+      <c r="D103" s="241"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
@@ -5763,6 +5763,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="C8:H8"/>
@@ -5779,30 +5803,6 @@
     <mergeCell ref="F43:H44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions verticalCentered="1"/>
@@ -5817,7 +5817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -5828,66 +5828,66 @@
   <sheetData>
     <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J2" s="199" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J3" s="199" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="200"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="270" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
+      <c r="B5" s="270"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="270"/>
+      <c r="F5" s="270"/>
+      <c r="G5" s="270"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="270"/>
+      <c r="J5" s="270"/>
+      <c r="K5" s="270"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="271" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="252"/>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="252"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="271"/>
+      <c r="K6" s="271"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="277" t="s">
+      <c r="B7" s="245" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="277" t="s">
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="278"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="277" t="s">
+      <c r="G7" s="246"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="245" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="279"/>
+      <c r="J7" s="247"/>
       <c r="K7" s="202" t="s">
         <v>103</v>
       </c>
@@ -5895,21 +5895,21 @@
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="204"/>
-      <c r="B8" s="280" t="s">
+      <c r="B8" s="248" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="281"/>
-      <c r="D8" s="281"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="283" t="s">
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="250"/>
+      <c r="F8" s="251" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="284"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="283" t="s">
+      <c r="G8" s="252"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="251" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="285"/>
+      <c r="J8" s="253"/>
       <c r="K8" s="205"/>
       <c r="L8" s="203"/>
     </row>
@@ -5917,21 +5917,21 @@
       <c r="A9" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="262" t="s">
+      <c r="B9" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="265" t="s">
+      <c r="C9" s="255"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="266"/>
-      <c r="H9" s="267"/>
-      <c r="I9" s="265" t="s">
+      <c r="G9" s="258"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="267"/>
+      <c r="J9" s="259"/>
       <c r="K9" s="205"/>
       <c r="L9" s="203"/>
     </row>
@@ -5939,121 +5939,121 @@
       <c r="A10" s="206">
         <v>1</v>
       </c>
-      <c r="B10" s="262" t="s">
+      <c r="B10" s="254" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="265" t="s">
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="266"/>
-      <c r="H10" s="267"/>
-      <c r="I10" s="265" t="s">
+      <c r="G10" s="258"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="267"/>
+      <c r="J10" s="259"/>
       <c r="K10" s="205"/>
       <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="206"/>
-      <c r="B11" s="268" t="s">
+      <c r="B11" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="269"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="265" t="s">
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="266"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="265" t="s">
+      <c r="G11" s="258"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="267"/>
+      <c r="J11" s="259"/>
       <c r="K11" s="205"/>
       <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="206"/>
-      <c r="B12" s="268" t="s">
+      <c r="B12" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="269"/>
-      <c r="D12" s="269"/>
-      <c r="E12" s="270"/>
-      <c r="F12" s="265" t="s">
+      <c r="C12" s="261"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="266"/>
-      <c r="H12" s="267"/>
-      <c r="I12" s="265" t="s">
+      <c r="G12" s="258"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="267"/>
+      <c r="J12" s="259"/>
       <c r="K12" s="205"/>
       <c r="L12" s="203"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="206"/>
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="269"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="265" t="s">
+      <c r="C13" s="261"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="266"/>
-      <c r="H13" s="267"/>
-      <c r="I13" s="265" t="s">
+      <c r="G13" s="258"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="267"/>
+      <c r="J13" s="259"/>
       <c r="K13" s="205"/>
       <c r="L13" s="203"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="206"/>
-      <c r="B14" s="268" t="s">
+      <c r="B14" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="269"/>
-      <c r="D14" s="269"/>
-      <c r="E14" s="270"/>
-      <c r="F14" s="265" t="s">
+      <c r="C14" s="261"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="262"/>
+      <c r="F14" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="266"/>
-      <c r="H14" s="267"/>
-      <c r="I14" s="265" t="s">
+      <c r="G14" s="258"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="267"/>
+      <c r="J14" s="259"/>
       <c r="K14" s="205"/>
       <c r="L14" s="203"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="206"/>
-      <c r="B15" s="268" t="s">
+      <c r="B15" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="269"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="265" t="s">
+      <c r="C15" s="261"/>
+      <c r="D15" s="261"/>
+      <c r="E15" s="262"/>
+      <c r="F15" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="266"/>
-      <c r="H15" s="267"/>
-      <c r="I15" s="265" t="s">
+      <c r="G15" s="258"/>
+      <c r="H15" s="259"/>
+      <c r="I15" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="267"/>
+      <c r="J15" s="259"/>
       <c r="K15" s="205"/>
       <c r="L15" s="203"/>
     </row>
@@ -6061,21 +6061,21 @@
       <c r="A16" s="206">
         <v>2</v>
       </c>
-      <c r="B16" s="262" t="s">
+      <c r="B16" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="263"/>
-      <c r="D16" s="263"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="265" t="s">
+      <c r="C16" s="255"/>
+      <c r="D16" s="255"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="266"/>
-      <c r="H16" s="267"/>
-      <c r="I16" s="265" t="s">
+      <c r="G16" s="258"/>
+      <c r="H16" s="259"/>
+      <c r="I16" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="267"/>
+      <c r="J16" s="259"/>
       <c r="K16" s="205"/>
       <c r="L16" s="203"/>
     </row>
@@ -6083,21 +6083,21 @@
       <c r="A17" s="207">
         <v>3</v>
       </c>
-      <c r="B17" s="271" t="s">
+      <c r="B17" s="263" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="274" t="s">
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="275"/>
-      <c r="H17" s="276"/>
-      <c r="I17" s="274" t="s">
+      <c r="G17" s="267"/>
+      <c r="H17" s="268"/>
+      <c r="I17" s="266" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="276"/>
+      <c r="J17" s="268"/>
       <c r="K17" s="208"/>
       <c r="L17" s="203"/>
     </row>
@@ -6105,21 +6105,21 @@
       <c r="A18" s="206">
         <v>4</v>
       </c>
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="265" t="s">
+      <c r="C18" s="255"/>
+      <c r="D18" s="255"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="266"/>
-      <c r="H18" s="267"/>
-      <c r="I18" s="265" t="s">
+      <c r="G18" s="258"/>
+      <c r="H18" s="259"/>
+      <c r="I18" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="267"/>
+      <c r="J18" s="259"/>
       <c r="K18" s="205"/>
       <c r="L18" s="203"/>
     </row>
@@ -6127,21 +6127,21 @@
       <c r="A19" s="206">
         <v>5</v>
       </c>
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="254" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="263"/>
-      <c r="D19" s="263"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="265" t="s">
+      <c r="C19" s="255"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="266"/>
-      <c r="H19" s="267"/>
-      <c r="I19" s="265" t="s">
+      <c r="G19" s="258"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="267"/>
+      <c r="J19" s="259"/>
       <c r="K19" s="205"/>
       <c r="L19" s="203"/>
     </row>
@@ -6149,21 +6149,21 @@
       <c r="A20" s="206">
         <v>6</v>
       </c>
-      <c r="B20" s="262" t="s">
+      <c r="B20" s="254" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="263"/>
-      <c r="D20" s="263"/>
-      <c r="E20" s="264"/>
-      <c r="F20" s="265" t="s">
+      <c r="C20" s="255"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="266"/>
-      <c r="H20" s="267"/>
-      <c r="I20" s="265" t="s">
+      <c r="G20" s="258"/>
+      <c r="H20" s="259"/>
+      <c r="I20" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="267"/>
+      <c r="J20" s="259"/>
       <c r="K20" s="205"/>
       <c r="L20" s="203"/>
     </row>
@@ -6171,21 +6171,21 @@
       <c r="A21" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="262" t="s">
+      <c r="B21" s="254" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="263"/>
-      <c r="D21" s="263"/>
-      <c r="E21" s="264"/>
-      <c r="F21" s="265" t="s">
+      <c r="C21" s="255"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="266"/>
-      <c r="H21" s="267"/>
-      <c r="I21" s="265" t="s">
+      <c r="G21" s="258"/>
+      <c r="H21" s="259"/>
+      <c r="I21" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="267"/>
+      <c r="J21" s="259"/>
       <c r="K21" s="205"/>
       <c r="L21" s="203"/>
     </row>
@@ -6193,21 +6193,21 @@
       <c r="A22" s="206">
         <v>1</v>
       </c>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="254" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="263"/>
-      <c r="D22" s="263"/>
-      <c r="E22" s="264"/>
-      <c r="F22" s="265" t="s">
+      <c r="C22" s="255"/>
+      <c r="D22" s="255"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="266"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="265" t="s">
+      <c r="G22" s="258"/>
+      <c r="H22" s="259"/>
+      <c r="I22" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="267"/>
+      <c r="J22" s="259"/>
       <c r="K22" s="205"/>
       <c r="L22" s="203"/>
     </row>
@@ -6215,21 +6215,21 @@
       <c r="A23" s="206">
         <v>2</v>
       </c>
-      <c r="B23" s="262" t="s">
+      <c r="B23" s="254" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="263"/>
-      <c r="D23" s="263"/>
-      <c r="E23" s="264"/>
-      <c r="F23" s="265" t="s">
+      <c r="C23" s="255"/>
+      <c r="D23" s="255"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="266"/>
-      <c r="H23" s="267"/>
-      <c r="I23" s="265" t="s">
+      <c r="G23" s="258"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="267"/>
+      <c r="J23" s="259"/>
       <c r="K23" s="205"/>
       <c r="L23" s="203"/>
     </row>
@@ -6237,21 +6237,21 @@
       <c r="A24" s="206">
         <v>3</v>
       </c>
-      <c r="B24" s="262" t="s">
+      <c r="B24" s="254" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="263"/>
-      <c r="D24" s="263"/>
-      <c r="E24" s="264"/>
-      <c r="F24" s="265" t="s">
+      <c r="C24" s="255"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="266"/>
-      <c r="H24" s="267"/>
-      <c r="I24" s="265" t="s">
+      <c r="G24" s="258"/>
+      <c r="H24" s="259"/>
+      <c r="I24" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="267"/>
+      <c r="J24" s="259"/>
       <c r="K24" s="205"/>
       <c r="L24" s="203"/>
     </row>
@@ -6259,21 +6259,21 @@
       <c r="A25" s="206">
         <v>4</v>
       </c>
-      <c r="B25" s="262" t="s">
+      <c r="B25" s="254" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="263"/>
-      <c r="D25" s="263"/>
-      <c r="E25" s="264"/>
-      <c r="F25" s="265" t="s">
+      <c r="C25" s="255"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="266"/>
-      <c r="H25" s="267"/>
-      <c r="I25" s="265" t="s">
+      <c r="G25" s="258"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J25" s="267"/>
+      <c r="J25" s="259"/>
       <c r="K25" s="205"/>
       <c r="L25" s="203"/>
     </row>
@@ -6281,21 +6281,21 @@
       <c r="A26" s="206">
         <v>5</v>
       </c>
-      <c r="B26" s="262" t="s">
+      <c r="B26" s="254" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="263"/>
-      <c r="D26" s="263"/>
-      <c r="E26" s="264"/>
-      <c r="F26" s="265" t="s">
+      <c r="C26" s="255"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="266"/>
-      <c r="H26" s="267"/>
-      <c r="I26" s="265" t="s">
+      <c r="G26" s="258"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="267"/>
+      <c r="J26" s="259"/>
       <c r="K26" s="205"/>
       <c r="L26" s="203"/>
     </row>
@@ -6303,41 +6303,41 @@
       <c r="A27" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="262" t="s">
+      <c r="B27" s="254" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="263"/>
-      <c r="D27" s="263"/>
-      <c r="E27" s="264"/>
-      <c r="F27" s="265" t="s">
+      <c r="C27" s="255"/>
+      <c r="D27" s="255"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="266"/>
-      <c r="H27" s="267"/>
-      <c r="I27" s="265" t="s">
+      <c r="G27" s="258"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="267"/>
+      <c r="J27" s="259"/>
       <c r="K27" s="205"/>
       <c r="L27" s="203"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="204"/>
-      <c r="B28" s="268" t="s">
+      <c r="B28" s="260" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="269"/>
-      <c r="D28" s="269"/>
-      <c r="E28" s="270"/>
-      <c r="F28" s="265" t="s">
+      <c r="C28" s="261"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="262"/>
+      <c r="F28" s="257" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="266"/>
-      <c r="H28" s="267"/>
-      <c r="I28" s="265" t="s">
+      <c r="G28" s="258"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="267"/>
+      <c r="J28" s="259"/>
       <c r="K28" s="205"/>
       <c r="L28" s="203"/>
     </row>
@@ -6357,63 +6357,63 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="209"/>
-      <c r="B30" s="254" t="s">
+      <c r="B30" s="273" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="255"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="257" t="s">
+      <c r="C30" s="274"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="276" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="258"/>
-      <c r="H30" s="259"/>
-      <c r="I30" s="257" t="s">
+      <c r="G30" s="277"/>
+      <c r="H30" s="278"/>
+      <c r="I30" s="276" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="259"/>
+      <c r="J30" s="278"/>
       <c r="K30" s="210"/>
       <c r="L30" s="203"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="260" t="s">
+      <c r="A31" s="279" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="260"/>
-      <c r="D31" s="247"/>
-      <c r="E31" s="248"/>
-      <c r="F31" s="248"/>
-      <c r="G31" s="249" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="249"/>
-      <c r="K31" s="249"/>
-      <c r="L31" s="249"/>
+      <c r="B31" s="279"/>
+      <c r="D31" s="284"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="281" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="281"/>
+      <c r="I31" s="281"/>
+      <c r="J31" s="281"/>
+      <c r="K31" s="281"/>
+      <c r="L31" s="281"/>
     </row>
     <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="261" t="s">
+      <c r="A32" s="280" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="261"/>
-      <c r="D32" s="245"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249" t="s">
+      <c r="B32" s="280"/>
+      <c r="D32" s="283"/>
+      <c r="E32" s="281"/>
+      <c r="F32" s="281"/>
+      <c r="G32" s="281" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="249"/>
-      <c r="I32" s="249"/>
-      <c r="J32" s="249"/>
-      <c r="K32" s="249"/>
-      <c r="L32" s="249"/>
+      <c r="H32" s="281"/>
+      <c r="I32" s="281"/>
+      <c r="J32" s="281"/>
+      <c r="K32" s="281"/>
+      <c r="L32" s="281"/>
     </row>
     <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="261" t="s">
+      <c r="A33" s="280" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="261"/>
+      <c r="B33" s="280"/>
       <c r="D33" s="222"/>
       <c r="F33" s="222"/>
       <c r="G33" s="222"/>
@@ -6421,76 +6421,76 @@
         <v>136</v>
       </c>
       <c r="I33" s="222"/>
-      <c r="J33" s="246" t="s">
+      <c r="J33" s="282" t="s">
         <v>137</v>
       </c>
-      <c r="K33" s="246"/>
-      <c r="L33" s="246"/>
+      <c r="K33" s="282"/>
+      <c r="L33" s="282"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="261" t="s">
+      <c r="A34" s="280" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="261"/>
+      <c r="B34" s="280"/>
       <c r="D34" s="222"/>
       <c r="F34" s="222"/>
       <c r="G34" s="222"/>
       <c r="H34" s="222"/>
       <c r="I34" s="222"/>
-      <c r="J34" s="246"/>
-      <c r="K34" s="246"/>
-      <c r="L34" s="246"/>
+      <c r="J34" s="282"/>
+      <c r="K34" s="282"/>
+      <c r="L34" s="282"/>
     </row>
     <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="250"/>
-      <c r="B35" s="250"/>
-      <c r="D35" s="253" t="s">
+      <c r="A35" s="269"/>
+      <c r="B35" s="269"/>
+      <c r="D35" s="272" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="253"/>
+      <c r="E35" s="272"/>
       <c r="F35" s="222"/>
       <c r="G35" s="222"/>
       <c r="H35" s="222"/>
       <c r="I35" s="222"/>
-      <c r="J35" s="246"/>
-      <c r="K35" s="246"/>
-      <c r="L35" s="246"/>
+      <c r="J35" s="282"/>
+      <c r="K35" s="282"/>
+      <c r="L35" s="282"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="250"/>
-      <c r="B36" s="250"/>
+      <c r="A36" s="269"/>
+      <c r="B36" s="269"/>
       <c r="D36" s="222"/>
       <c r="F36" s="222"/>
       <c r="G36" s="222"/>
       <c r="H36" s="222"/>
       <c r="I36" s="222"/>
-      <c r="J36" s="246"/>
-      <c r="K36" s="246"/>
-      <c r="L36" s="246"/>
+      <c r="J36" s="282"/>
+      <c r="K36" s="282"/>
+      <c r="L36" s="282"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="250"/>
-      <c r="B37" s="250"/>
+      <c r="A37" s="269"/>
+      <c r="B37" s="269"/>
       <c r="D37" s="212"/>
       <c r="F37" s="222"/>
       <c r="G37" s="222"/>
       <c r="H37" s="222"/>
       <c r="I37" s="222"/>
-      <c r="J37" s="246"/>
-      <c r="K37" s="246"/>
-      <c r="L37" s="246"/>
+      <c r="J37" s="282"/>
+      <c r="K37" s="282"/>
+      <c r="L37" s="282"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="250"/>
-      <c r="B38" s="250"/>
+      <c r="A38" s="269"/>
+      <c r="B38" s="269"/>
       <c r="D38" s="211"/>
       <c r="F38" s="222"/>
       <c r="G38" s="222"/>
       <c r="H38" s="222"/>
       <c r="I38" s="222"/>
-      <c r="J38" s="246"/>
-      <c r="K38" s="246"/>
-      <c r="L38" s="246"/>
+      <c r="J38" s="282"/>
+      <c r="K38" s="282"/>
+      <c r="L38" s="282"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="211"/>
@@ -6503,11 +6503,11 @@
         <v>138</v>
       </c>
       <c r="I39" s="213"/>
-      <c r="J39" s="246" t="s">
+      <c r="J39" s="282" t="s">
         <v>137</v>
       </c>
-      <c r="K39" s="246"/>
-      <c r="L39" s="246"/>
+      <c r="K39" s="282"/>
+      <c r="L39" s="282"/>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="211"/>
@@ -6521,11 +6521,11 @@
         <v>139</v>
       </c>
       <c r="I40" s="213"/>
-      <c r="J40" s="246" t="s">
+      <c r="J40" s="282" t="s">
         <v>143</v>
       </c>
-      <c r="K40" s="246"/>
-      <c r="L40" s="246"/>
+      <c r="K40" s="282"/>
+      <c r="L40" s="282"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
       <c r="D41" s="212"/>
@@ -6534,10 +6534,10 @@
       <c r="D42" s="211"/>
     </row>
     <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="245" t="s">
+      <c r="D43" s="283" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="245"/>
+      <c r="E43" s="283"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C44">
@@ -6545,82 +6545,23 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D47" s="245" t="s">
+      <c r="D47" s="283" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="245"/>
+      <c r="E47" s="283"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:L31"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -6637,13 +6578,72 @@
     <mergeCell ref="J33:L38"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6683,43 +6683,43 @@
       <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="290" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="237" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
+      <c r="A3" s="224" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104"/>
@@ -6732,26 +6732,26 @@
       <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:9" s="106" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="291" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="105"/>
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="296" t="s">
+      <c r="D6" s="295" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="297"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="298"/>
+      <c r="E6" s="296"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="296"/>
+      <c r="H6" s="296"/>
+      <c r="I6" s="297"/>
     </row>
     <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="293"/>
+      <c r="A7" s="292"/>
       <c r="B7" s="107"/>
-      <c r="C7" s="295"/>
+      <c r="C7" s="294"/>
       <c r="D7" s="108" t="s">
         <v>70</v>
       </c>
@@ -6821,9 +6821,9 @@
       <c r="I10" s="131"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="299"/>
-      <c r="B11" s="300"/>
-      <c r="C11" s="301"/>
+      <c r="A11" s="298"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="300"/>
       <c r="D11" s="132" t="s">
         <v>64</v>
       </c>
@@ -6858,10 +6858,10 @@
       <c r="A13" s="141">
         <v>1</v>
       </c>
-      <c r="B13" s="286" t="s">
+      <c r="B13" s="288" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="287"/>
+      <c r="C13" s="289"/>
       <c r="D13" s="144"/>
       <c r="E13" s="144" t="s">
         <v>96</v>
@@ -6892,10 +6892,10 @@
       <c r="A15" s="141">
         <v>3</v>
       </c>
-      <c r="B15" s="286" t="s">
+      <c r="B15" s="288" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="287"/>
+      <c r="C15" s="289"/>
       <c r="D15" s="144"/>
       <c r="E15" s="144" t="s">
         <v>96</v>
@@ -6909,10 +6909,10 @@
       <c r="A16" s="141">
         <v>4</v>
       </c>
-      <c r="B16" s="286" t="s">
+      <c r="B16" s="288" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="287"/>
+      <c r="C16" s="289"/>
       <c r="D16" s="144"/>
       <c r="E16" s="144" t="s">
         <v>96</v>
@@ -6926,10 +6926,10 @@
       <c r="A17" s="146">
         <v>5</v>
       </c>
-      <c r="B17" s="302" t="s">
+      <c r="B17" s="301" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="303"/>
+      <c r="C17" s="302"/>
       <c r="D17" s="144"/>
       <c r="E17" s="144" t="s">
         <v>96</v>
@@ -6943,10 +6943,10 @@
       <c r="A18" s="141">
         <v>6</v>
       </c>
-      <c r="B18" s="304" t="s">
+      <c r="B18" s="303" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="305"/>
+      <c r="C18" s="304"/>
       <c r="D18" s="144"/>
       <c r="E18" s="144" t="s">
         <v>96</v>
@@ -6960,10 +6960,10 @@
       <c r="A19" s="141">
         <v>7</v>
       </c>
-      <c r="B19" s="306" t="s">
+      <c r="B19" s="305" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="307"/>
+      <c r="C19" s="306"/>
       <c r="D19" s="144"/>
       <c r="E19" s="144" t="s">
         <v>96</v>
@@ -6977,8 +6977,8 @@
       <c r="A20" s="141">
         <v>8</v>
       </c>
-      <c r="B20" s="286"/>
-      <c r="C20" s="287"/>
+      <c r="B20" s="288"/>
+      <c r="C20" s="289"/>
       <c r="D20" s="144"/>
       <c r="E20" s="144" t="s">
         <v>96</v>
@@ -6992,8 +6992,8 @@
       <c r="A21" s="141">
         <v>9</v>
       </c>
-      <c r="B21" s="286"/>
-      <c r="C21" s="287"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="289"/>
       <c r="D21" s="144"/>
       <c r="E21" s="144" t="s">
         <v>96</v>
@@ -7425,11 +7425,11 @@
       <c r="A50" s="40"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
-      <c r="D50" s="239" t="s">
+      <c r="D50" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="240"/>
-      <c r="F50" s="241"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="230"/>
       <c r="H50" s="167"/>
       <c r="I50" s="167"/>
     </row>
@@ -7449,10 +7449,10 @@
       <c r="A52" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="228" t="s">
+      <c r="B52" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="308"/>
+      <c r="C52" s="286"/>
       <c r="D52" s="100" t="s">
         <v>92</v>
       </c>
@@ -7467,10 +7467,10 @@
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
-      <c r="B53" s="228" t="s">
+      <c r="B53" s="234" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="308"/>
+      <c r="C53" s="286"/>
       <c r="D53" s="102"/>
       <c r="E53" s="102"/>
       <c r="F53" s="101"/>
@@ -7632,13 +7632,13 @@
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="167"/>
-      <c r="E65" s="288" t="s">
-        <v>154</v>
-      </c>
-      <c r="F65" s="288"/>
-      <c r="G65" s="288"/>
-      <c r="H65" s="288"/>
-      <c r="I65" s="288"/>
+      <c r="E65" s="307" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="307"/>
+      <c r="G65" s="307"/>
+      <c r="H65" s="307"/>
+      <c r="I65" s="307"/>
     </row>
     <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="165"/>
@@ -7660,13 +7660,13 @@
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="169"/>
-      <c r="E67" s="289" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="289"/>
-      <c r="G67" s="289"/>
-      <c r="H67" s="289"/>
-      <c r="I67" s="289"/>
+      <c r="E67" s="308" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" s="308"/>
+      <c r="G67" s="308"/>
+      <c r="H67" s="308"/>
+      <c r="I67" s="308"/>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="165"/>
@@ -7675,13 +7675,13 @@
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="169"/>
-      <c r="E68" s="289" t="s">
+      <c r="E68" s="308" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="289"/>
-      <c r="G68" s="289"/>
-      <c r="H68" s="289"/>
-      <c r="I68" s="289"/>
+      <c r="F68" s="308"/>
+      <c r="G68" s="308"/>
+      <c r="H68" s="308"/>
+      <c r="I68" s="308"/>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="165"/>
@@ -7705,8 +7705,8 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="165"/>
-      <c r="B71" s="233"/>
-      <c r="C71" s="233"/>
+      <c r="B71" s="243"/>
+      <c r="C71" s="243"/>
       <c r="D71" s="169"/>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -7718,10 +7718,10 @@
       <c r="A72" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="236" t="s">
+      <c r="B72" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="236"/>
+      <c r="C72" s="244"/>
       <c r="D72" s="174" t="s">
         <v>64</v>
       </c>
@@ -7739,8 +7739,8 @@
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="172"/>
-      <c r="B73" s="232"/>
-      <c r="C73" s="232"/>
+      <c r="B73" s="242"/>
+      <c r="C73" s="242"/>
       <c r="D73" s="174"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
@@ -7771,10 +7771,10 @@
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="172"/>
-      <c r="B75" s="233" t="s">
+      <c r="B75" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="233"/>
+      <c r="C75" s="243"/>
       <c r="D75" s="174"/>
       <c r="E75" s="175"/>
       <c r="F75" s="176"/>
@@ -7794,8 +7794,8 @@
       <c r="E76" s="179">
         <v>3</v>
       </c>
-      <c r="F76" s="290"/>
-      <c r="G76" s="290"/>
+      <c r="F76" s="287"/>
+      <c r="G76" s="287"/>
       <c r="H76" s="178" t="s">
         <v>88</v>
       </c>
@@ -7803,8 +7803,8 @@
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="177"/>
-      <c r="B77" s="233"/>
-      <c r="C77" s="233"/>
+      <c r="B77" s="243"/>
+      <c r="C77" s="243"/>
       <c r="D77" s="178"/>
       <c r="E77" s="179"/>
       <c r="F77" s="178"/>
@@ -7816,8 +7816,8 @@
       <c r="A78" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="232"/>
-      <c r="C78" s="232"/>
+      <c r="B78" s="242"/>
+      <c r="C78" s="242"/>
       <c r="D78" s="178" t="s">
         <v>64</v>
       </c>
@@ -7833,8 +7833,8 @@
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="177"/>
-      <c r="B79" s="232"/>
-      <c r="C79" s="232"/>
+      <c r="B79" s="242"/>
+      <c r="C79" s="242"/>
       <c r="D79" s="178"/>
       <c r="E79" s="179"/>
       <c r="F79" s="178"/>
@@ -7858,8 +7858,8 @@
       <c r="E80" s="179">
         <v>5</v>
       </c>
-      <c r="F80" s="290"/>
-      <c r="G80" s="290"/>
+      <c r="F80" s="287"/>
+      <c r="G80" s="287"/>
       <c r="H80" s="178" t="s">
         <v>88</v>
       </c>
@@ -7869,10 +7869,10 @@
       <c r="A81" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="B81" s="233" t="s">
+      <c r="B81" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="233"/>
+      <c r="C81" s="243"/>
       <c r="D81" s="178"/>
       <c r="E81" s="177"/>
       <c r="F81" s="178"/>
@@ -7905,8 +7905,8 @@
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="177"/>
-      <c r="B83" s="233"/>
-      <c r="C83" s="233"/>
+      <c r="B83" s="243"/>
+      <c r="C83" s="243"/>
       <c r="D83" s="178" t="s">
         <v>64</v>
       </c>
@@ -7926,16 +7926,16 @@
       <c r="A84" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="B84" s="232"/>
-      <c r="C84" s="232"/>
+      <c r="B84" s="242"/>
+      <c r="C84" s="242"/>
       <c r="D84" s="178" t="s">
         <v>64</v>
       </c>
       <c r="E84" s="179">
         <v>7</v>
       </c>
-      <c r="F84" s="290"/>
-      <c r="G84" s="290"/>
+      <c r="F84" s="287"/>
+      <c r="G84" s="287"/>
       <c r="H84" s="178" t="s">
         <v>88</v>
       </c>
@@ -7943,8 +7943,8 @@
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="177"/>
-      <c r="B85" s="232"/>
-      <c r="C85" s="232"/>
+      <c r="B85" s="242"/>
+      <c r="C85" s="242"/>
       <c r="D85" s="178" t="s">
         <v>64</v>
       </c>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="177"/>
-      <c r="B87" s="233" t="s">
+      <c r="B87" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="233"/>
+      <c r="C87" s="243"/>
       <c r="D87" s="178"/>
       <c r="E87" s="178"/>
       <c r="F87" s="178"/>
@@ -8162,18 +8162,14 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F80:G80"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
@@ -8190,14 +8186,18 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B84:C84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
+++ b/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="255" windowWidth="9780" windowHeight="5835" tabRatio="602" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="255" windowWidth="9780" windowHeight="5835" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="BA Pembukaan Penawaran Harga" sheetId="6" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="156">
   <si>
     <t>No</t>
   </si>
@@ -412,9 +412,6 @@
   </si>
   <si>
     <t>DIBULATKAN</t>
-  </si>
-  <si>
-    <t>SPPH No. : 459/SPH/TABS-PLN/IX/2010</t>
   </si>
   <si>
     <t>PT ..............</t>
@@ -3198,18 +3195,51 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3228,38 +3258,101 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3288,114 +3381,21 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3447,10 +3447,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4129,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ106"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4170,28 +4167,28 @@
       <c r="I4" s="71"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="224" t="s">
+      <c r="B5" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
       <c r="I5" s="30"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="224" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
+      <c r="B6" s="237" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
       <c r="I6" s="30"/>
       <c r="J6" s="5"/>
     </row>
@@ -4208,14 +4205,14 @@
     </row>
     <row r="8" spans="2:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="225" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
+      <c r="C8" s="238" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
       <c r="I8" s="31"/>
       <c r="J8" s="5"/>
     </row>
@@ -4235,11 +4232,11 @@
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
-      <c r="F10" s="228" t="s">
+      <c r="F10" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="229"/>
-      <c r="H10" s="230"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="241"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -4248,9 +4245,9 @@
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="233"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="244"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
     </row>
@@ -4258,19 +4255,19 @@
       <c r="B12" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="234" t="s">
+      <c r="C12" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="238" t="s">
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="224" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="238" t="s">
+      <c r="H12" s="224" t="s">
         <v>56</v>
-      </c>
-      <c r="H12" s="238" t="s">
-        <v>57</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
@@ -4279,25 +4276,25 @@
       <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="239"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="45"/>
-      <c r="C14" s="234" t="s">
+      <c r="C14" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
       <c r="I14" s="12"/>
       <c r="J14" s="9"/>
     </row>
@@ -4306,14 +4303,14 @@
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="236" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="236" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="236" t="s">
-        <v>59</v>
+      <c r="F15" s="230" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="230" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="230" t="s">
+        <v>58</v>
       </c>
       <c r="J15" s="9"/>
     </row>
@@ -4322,9 +4319,9 @@
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4333,13 +4330,13 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="195" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
@@ -4907,11 +4904,11 @@
       <c r="C43" s="41"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="228" t="s">
+      <c r="F43" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="229"/>
-      <c r="H43" s="230"/>
+      <c r="G43" s="240"/>
+      <c r="H43" s="241"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
@@ -4920,9 +4917,9 @@
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="232"/>
-      <c r="H44" s="233"/>
+      <c r="F44" s="242"/>
+      <c r="G44" s="243"/>
+      <c r="H44" s="244"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
     </row>
@@ -4930,19 +4927,19 @@
       <c r="B45" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="234" t="s">
+      <c r="C45" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="235"/>
-      <c r="E45" s="235"/>
-      <c r="F45" s="238" t="s">
+      <c r="D45" s="229"/>
+      <c r="E45" s="229"/>
+      <c r="F45" s="224" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="238" t="s">
+      <c r="H45" s="224" t="s">
         <v>56</v>
-      </c>
-      <c r="H45" s="238" t="s">
-        <v>57</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
@@ -4951,25 +4948,25 @@
       <c r="B46" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="234"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="235"/>
-      <c r="F46" s="239"/>
-      <c r="G46" s="239"/>
-      <c r="H46" s="239"/>
+      <c r="C46" s="228"/>
+      <c r="D46" s="229"/>
+      <c r="E46" s="229"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="225"/>
+      <c r="H46" s="225"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="2:36" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="45"/>
-      <c r="C47" s="234" t="s">
+      <c r="C47" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="240"/>
-      <c r="G47" s="240"/>
-      <c r="H47" s="240"/>
+      <c r="D47" s="229"/>
+      <c r="E47" s="229"/>
+      <c r="F47" s="226"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="226"/>
       <c r="I47" s="12"/>
       <c r="J47" s="9"/>
     </row>
@@ -4978,14 +4975,14 @@
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="236" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="236" t="s">
-        <v>59</v>
+      <c r="F48" s="230" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="230" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="230" t="s">
+        <v>58</v>
       </c>
       <c r="J48" s="9"/>
     </row>
@@ -4994,9 +4991,9 @@
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="237"/>
-      <c r="G49" s="237"/>
-      <c r="H49" s="237"/>
+      <c r="F49" s="231"/>
+      <c r="G49" s="231"/>
+      <c r="H49" s="231"/>
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:36" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5005,13 +5002,13 @@
       <c r="D50" s="90"/>
       <c r="E50" s="91"/>
       <c r="F50" s="84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" s="84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
@@ -5312,31 +5309,31 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="226" t="s">
+      <c r="B60" s="234" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="227"/>
+      <c r="C60" s="235"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="226" t="s">
+      <c r="B61" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="227"/>
+      <c r="C61" s="235"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -5363,7 +5360,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="37"/>
       <c r="F63" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G63" s="65" t="s">
         <v>42</v>
@@ -5372,10 +5369,10 @@
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="2:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="244" t="s">
+      <c r="B64" s="236" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="244"/>
+      <c r="C64" s="236"/>
       <c r="D64" s="14"/>
       <c r="E64" s="5"/>
       <c r="F64" s="66" t="s">
@@ -5395,12 +5392,12 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="243"/>
-      <c r="C66" s="243"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="233"/>
       <c r="D66" s="14"/>
       <c r="E66" s="5"/>
       <c r="F66" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" s="65" t="s">
         <v>42</v>
@@ -5409,8 +5406,8 @@
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="242"/>
-      <c r="C67" s="242"/>
+      <c r="B67" s="232"/>
+      <c r="C67" s="232"/>
       <c r="D67" s="14"/>
       <c r="E67" s="5"/>
       <c r="F67" s="66" t="s">
@@ -5421,8 +5418,8 @@
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="242"/>
-      <c r="C68" s="242"/>
+      <c r="B68" s="232"/>
+      <c r="C68" s="232"/>
       <c r="D68" s="14"/>
       <c r="E68" s="5"/>
       <c r="F68" s="66"/>
@@ -5436,7 +5433,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="5"/>
       <c r="F69" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="65" t="s">
         <v>42</v>
@@ -5445,10 +5442,10 @@
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="243" t="s">
+      <c r="B70" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="243"/>
+      <c r="C70" s="233"/>
       <c r="D70" s="14"/>
       <c r="E70" s="5"/>
       <c r="F70" s="66" t="s">
@@ -5469,8 +5466,8 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="243"/>
-      <c r="C72" s="243"/>
+      <c r="B72" s="233"/>
+      <c r="C72" s="233"/>
       <c r="D72" s="14"/>
       <c r="E72" s="5"/>
       <c r="F72" s="64"/>
@@ -5479,8 +5476,8 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="242"/>
-      <c r="C73" s="242"/>
+      <c r="B73" s="232"/>
+      <c r="C73" s="232"/>
       <c r="D73" s="14"/>
       <c r="E73" s="5"/>
       <c r="F73" s="66"/>
@@ -5489,8 +5486,8 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="242"/>
-      <c r="C74" s="242"/>
+      <c r="B74" s="232"/>
+      <c r="C74" s="232"/>
       <c r="D74" s="14"/>
       <c r="E74" s="5"/>
       <c r="F74" s="10"/>
@@ -5509,10 +5506,10 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="243" t="s">
+      <c r="B76" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="243"/>
+      <c r="C76" s="233"/>
       <c r="D76" s="14"/>
       <c r="E76" s="5"/>
       <c r="F76" s="66"/>
@@ -5531,8 +5528,8 @@
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="243"/>
-      <c r="C78" s="243"/>
+      <c r="B78" s="233"/>
+      <c r="C78" s="233"/>
       <c r="D78" s="14"/>
       <c r="E78" s="37"/>
       <c r="F78" s="64"/>
@@ -5541,8 +5538,8 @@
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B79" s="242"/>
-      <c r="C79" s="242"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="232"/>
       <c r="D79" s="14"/>
       <c r="E79" s="5"/>
       <c r="F79" s="66"/>
@@ -5551,8 +5548,8 @@
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="242"/>
-      <c r="C80" s="242"/>
+      <c r="B80" s="232"/>
+      <c r="C80" s="232"/>
       <c r="D80" s="14"/>
       <c r="E80" s="5"/>
       <c r="F80" s="66"/>
@@ -5571,10 +5568,10 @@
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B82" s="243" t="s">
+      <c r="B82" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="243"/>
+      <c r="C82" s="233"/>
       <c r="D82" s="27"/>
       <c r="E82" s="5"/>
       <c r="F82" s="66"/>
@@ -5738,13 +5735,13 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
-      <c r="C102" s="241"/>
-      <c r="D102" s="241"/>
+      <c r="C102" s="227"/>
+      <c r="D102" s="227"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
-      <c r="C103" s="241"/>
-      <c r="D103" s="241"/>
+      <c r="C103" s="227"/>
+      <c r="D103" s="227"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
@@ -5763,14 +5760,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F43:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B79:C79"/>
@@ -5787,22 +5792,14 @@
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F43:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions verticalCentered="1"/>
@@ -5817,7 +5814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -5828,88 +5825,88 @@
   <sheetData>
     <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J2" s="199" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
       <c r="J3" s="199" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="200"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="270" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="270"/>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
+      <c r="A5" s="251" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="251"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="271" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="271"/>
-      <c r="D6" s="271"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
-      <c r="K6" s="271"/>
+      <c r="A6" s="252" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="252"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="252"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="201" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="245" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="277" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="277" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="245" t="s">
+      <c r="G7" s="278"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="277" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="246"/>
-      <c r="H7" s="247"/>
-      <c r="I7" s="245" t="s">
+      <c r="J7" s="279"/>
+      <c r="K7" s="202" t="s">
         <v>102</v>
-      </c>
-      <c r="J7" s="247"/>
-      <c r="K7" s="202" t="s">
-        <v>103</v>
       </c>
       <c r="L7" s="203"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="204"/>
-      <c r="B8" s="248" t="s">
+      <c r="B8" s="280" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="281"/>
+      <c r="D8" s="281"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="283" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="251" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="252"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="251" t="s">
+      <c r="G8" s="284"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="283" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="253"/>
+      <c r="J8" s="285"/>
       <c r="K8" s="205"/>
       <c r="L8" s="203"/>
     </row>
@@ -5917,21 +5914,21 @@
       <c r="A9" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="254" t="s">
+      <c r="B9" s="262" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="265" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="258"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="259"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="267"/>
+      <c r="I9" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="267"/>
       <c r="K9" s="205"/>
       <c r="L9" s="203"/>
     </row>
@@ -5939,121 +5936,121 @@
       <c r="A10" s="206">
         <v>1</v>
       </c>
-      <c r="B10" s="254" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="257" t="s">
+      <c r="B10" s="262" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="258"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="259"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="266"/>
+      <c r="H10" s="267"/>
+      <c r="I10" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="267"/>
       <c r="K10" s="205"/>
       <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="206"/>
-      <c r="B11" s="260" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="258"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="259"/>
+      <c r="B11" s="268" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="269"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="266"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="267"/>
       <c r="K11" s="205"/>
       <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="206"/>
-      <c r="B12" s="260" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="261"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="258"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="259"/>
+      <c r="B12" s="268" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="269"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="266"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="267"/>
       <c r="K12" s="205"/>
       <c r="L12" s="203"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="206"/>
-      <c r="B13" s="260" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="258"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="259"/>
+      <c r="B13" s="268" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="266"/>
+      <c r="H13" s="267"/>
+      <c r="I13" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="267"/>
       <c r="K13" s="205"/>
       <c r="L13" s="203"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="206"/>
-      <c r="B14" s="260" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="258"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="259"/>
+      <c r="B14" s="268" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="269"/>
+      <c r="D14" s="269"/>
+      <c r="E14" s="270"/>
+      <c r="F14" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="266"/>
+      <c r="H14" s="267"/>
+      <c r="I14" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="267"/>
       <c r="K14" s="205"/>
       <c r="L14" s="203"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="206"/>
-      <c r="B15" s="260" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="261"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="258"/>
-      <c r="H15" s="259"/>
-      <c r="I15" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="259"/>
+      <c r="B15" s="268" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="266"/>
+      <c r="H15" s="267"/>
+      <c r="I15" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="267"/>
       <c r="K15" s="205"/>
       <c r="L15" s="203"/>
     </row>
@@ -6061,21 +6058,21 @@
       <c r="A16" s="206">
         <v>2</v>
       </c>
-      <c r="B16" s="254" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="255"/>
-      <c r="D16" s="255"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="258"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="259"/>
+      <c r="B16" s="262" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="266"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="267"/>
       <c r="K16" s="205"/>
       <c r="L16" s="203"/>
     </row>
@@ -6083,21 +6080,21 @@
       <c r="A17" s="207">
         <v>3</v>
       </c>
-      <c r="B17" s="263" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="265"/>
-      <c r="F17" s="266" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="267"/>
-      <c r="H17" s="268"/>
-      <c r="I17" s="266" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="268"/>
+      <c r="B17" s="271" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="272"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="274" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="275"/>
+      <c r="H17" s="276"/>
+      <c r="I17" s="274" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="276"/>
       <c r="K17" s="208"/>
       <c r="L17" s="203"/>
     </row>
@@ -6105,21 +6102,21 @@
       <c r="A18" s="206">
         <v>4</v>
       </c>
-      <c r="B18" s="254" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="255"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="258"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="259"/>
+      <c r="B18" s="262" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="266"/>
+      <c r="H18" s="267"/>
+      <c r="I18" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="267"/>
       <c r="K18" s="205"/>
       <c r="L18" s="203"/>
     </row>
@@ -6127,21 +6124,21 @@
       <c r="A19" s="206">
         <v>5</v>
       </c>
-      <c r="B19" s="254" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="255"/>
-      <c r="D19" s="255"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="258"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="259"/>
+      <c r="B19" s="262" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="266"/>
+      <c r="H19" s="267"/>
+      <c r="I19" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="267"/>
       <c r="K19" s="205"/>
       <c r="L19" s="203"/>
     </row>
@@ -6149,21 +6146,21 @@
       <c r="A20" s="206">
         <v>6</v>
       </c>
-      <c r="B20" s="254" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="255"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="258"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="259"/>
+      <c r="B20" s="262" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="264"/>
+      <c r="F20" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="266"/>
+      <c r="H20" s="267"/>
+      <c r="I20" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="267"/>
       <c r="K20" s="205"/>
       <c r="L20" s="203"/>
     </row>
@@ -6171,21 +6168,21 @@
       <c r="A21" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="254" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="255"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="258"/>
-      <c r="H21" s="259"/>
-      <c r="I21" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="259"/>
+      <c r="B21" s="262" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="264"/>
+      <c r="F21" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="266"/>
+      <c r="H21" s="267"/>
+      <c r="I21" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="267"/>
       <c r="K21" s="205"/>
       <c r="L21" s="203"/>
     </row>
@@ -6193,21 +6190,21 @@
       <c r="A22" s="206">
         <v>1</v>
       </c>
-      <c r="B22" s="254" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="255"/>
-      <c r="D22" s="255"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="258"/>
-      <c r="H22" s="259"/>
-      <c r="I22" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="259"/>
+      <c r="B22" s="262" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="266"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="267"/>
       <c r="K22" s="205"/>
       <c r="L22" s="203"/>
     </row>
@@ -6215,21 +6212,21 @@
       <c r="A23" s="206">
         <v>2</v>
       </c>
-      <c r="B23" s="254" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="255"/>
-      <c r="D23" s="255"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="258"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="259"/>
+      <c r="B23" s="262" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="266"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="267"/>
       <c r="K23" s="205"/>
       <c r="L23" s="203"/>
     </row>
@@ -6237,21 +6234,21 @@
       <c r="A24" s="206">
         <v>3</v>
       </c>
-      <c r="B24" s="254" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="255"/>
-      <c r="D24" s="255"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="258"/>
-      <c r="H24" s="259"/>
-      <c r="I24" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="259"/>
+      <c r="B24" s="262" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="266"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="267"/>
       <c r="K24" s="205"/>
       <c r="L24" s="203"/>
     </row>
@@ -6259,21 +6256,21 @@
       <c r="A25" s="206">
         <v>4</v>
       </c>
-      <c r="B25" s="254" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="255"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="258"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="259"/>
+      <c r="B25" s="262" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="263"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="264"/>
+      <c r="F25" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="266"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="267"/>
       <c r="K25" s="205"/>
       <c r="L25" s="203"/>
     </row>
@@ -6281,21 +6278,21 @@
       <c r="A26" s="206">
         <v>5</v>
       </c>
-      <c r="B26" s="254" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="255"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="258"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="259"/>
+      <c r="B26" s="262" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="264"/>
+      <c r="F26" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="266"/>
+      <c r="H26" s="267"/>
+      <c r="I26" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="267"/>
       <c r="K26" s="205"/>
       <c r="L26" s="203"/>
     </row>
@@ -6303,41 +6300,41 @@
       <c r="A27" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="254" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="255"/>
-      <c r="D27" s="255"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="257" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="258"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="257" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="259"/>
+      <c r="B27" s="262" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="266"/>
+      <c r="H27" s="267"/>
+      <c r="I27" s="265" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="267"/>
       <c r="K27" s="205"/>
       <c r="L27" s="203"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="204"/>
-      <c r="B28" s="260" t="s">
+      <c r="B28" s="268" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="269"/>
+      <c r="D28" s="269"/>
+      <c r="E28" s="270"/>
+      <c r="F28" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="261"/>
-      <c r="D28" s="261"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="257" t="s">
+      <c r="G28" s="266"/>
+      <c r="H28" s="267"/>
+      <c r="I28" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="258"/>
-      <c r="H28" s="259"/>
-      <c r="I28" s="257" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="259"/>
+      <c r="J28" s="267"/>
       <c r="K28" s="205"/>
       <c r="L28" s="203"/>
     </row>
@@ -6357,157 +6354,157 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="209"/>
-      <c r="B30" s="273" t="s">
+      <c r="B30" s="254" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="255"/>
+      <c r="D30" s="255"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="274"/>
-      <c r="D30" s="274"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="276" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="277"/>
-      <c r="H30" s="278"/>
-      <c r="I30" s="276" t="s">
+      <c r="G30" s="258"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="278"/>
+      <c r="J30" s="259"/>
       <c r="K30" s="210"/>
       <c r="L30" s="203"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="279" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="279"/>
-      <c r="D31" s="284"/>
-      <c r="E31" s="285"/>
-      <c r="F31" s="285"/>
-      <c r="G31" s="281" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" s="281"/>
-      <c r="I31" s="281"/>
-      <c r="J31" s="281"/>
-      <c r="K31" s="281"/>
-      <c r="L31" s="281"/>
+      <c r="A31" s="260" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="260"/>
+      <c r="D31" s="247"/>
+      <c r="E31" s="248"/>
+      <c r="F31" s="248"/>
+      <c r="G31" s="249" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="249"/>
+      <c r="K31" s="249"/>
+      <c r="L31" s="249"/>
     </row>
     <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="280" t="s">
+      <c r="A32" s="261" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="261"/>
+      <c r="D32" s="245"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="249"/>
+      <c r="K32" s="249"/>
+      <c r="L32" s="249"/>
+    </row>
+    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="280"/>
-      <c r="D32" s="283"/>
-      <c r="E32" s="281"/>
-      <c r="F32" s="281"/>
-      <c r="G32" s="281" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="281"/>
-      <c r="I32" s="281"/>
-      <c r="J32" s="281"/>
-      <c r="K32" s="281"/>
-      <c r="L32" s="281"/>
-    </row>
-    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="280" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="280"/>
+      <c r="B33" s="261"/>
       <c r="D33" s="222"/>
       <c r="F33" s="222"/>
       <c r="G33" s="222"/>
       <c r="H33" s="222" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="222"/>
+      <c r="J33" s="246" t="s">
         <v>136</v>
       </c>
-      <c r="I33" s="222"/>
-      <c r="J33" s="282" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" s="282"/>
-      <c r="L33" s="282"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="246"/>
     </row>
     <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="280" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="280"/>
+      <c r="A34" s="261" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="261"/>
       <c r="D34" s="222"/>
       <c r="F34" s="222"/>
       <c r="G34" s="222"/>
       <c r="H34" s="222"/>
       <c r="I34" s="222"/>
-      <c r="J34" s="282"/>
-      <c r="K34" s="282"/>
-      <c r="L34" s="282"/>
+      <c r="J34" s="246"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="246"/>
     </row>
     <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="269"/>
-      <c r="B35" s="269"/>
-      <c r="D35" s="272" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="272"/>
+      <c r="A35" s="250"/>
+      <c r="B35" s="250"/>
+      <c r="D35" s="253" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="253"/>
       <c r="F35" s="222"/>
       <c r="G35" s="222"/>
       <c r="H35" s="222"/>
       <c r="I35" s="222"/>
-      <c r="J35" s="282"/>
-      <c r="K35" s="282"/>
-      <c r="L35" s="282"/>
+      <c r="J35" s="246"/>
+      <c r="K35" s="246"/>
+      <c r="L35" s="246"/>
     </row>
     <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="269"/>
-      <c r="B36" s="269"/>
+      <c r="A36" s="250"/>
+      <c r="B36" s="250"/>
       <c r="D36" s="222"/>
       <c r="F36" s="222"/>
       <c r="G36" s="222"/>
       <c r="H36" s="222"/>
       <c r="I36" s="222"/>
-      <c r="J36" s="282"/>
-      <c r="K36" s="282"/>
-      <c r="L36" s="282"/>
+      <c r="J36" s="246"/>
+      <c r="K36" s="246"/>
+      <c r="L36" s="246"/>
     </row>
     <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="269"/>
-      <c r="B37" s="269"/>
+      <c r="A37" s="250"/>
+      <c r="B37" s="250"/>
       <c r="D37" s="212"/>
       <c r="F37" s="222"/>
       <c r="G37" s="222"/>
       <c r="H37" s="222"/>
       <c r="I37" s="222"/>
-      <c r="J37" s="282"/>
-      <c r="K37" s="282"/>
-      <c r="L37" s="282"/>
+      <c r="J37" s="246"/>
+      <c r="K37" s="246"/>
+      <c r="L37" s="246"/>
     </row>
     <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="269"/>
-      <c r="B38" s="269"/>
+      <c r="A38" s="250"/>
+      <c r="B38" s="250"/>
       <c r="D38" s="211"/>
       <c r="F38" s="222"/>
       <c r="G38" s="222"/>
       <c r="H38" s="222"/>
       <c r="I38" s="222"/>
-      <c r="J38" s="282"/>
-      <c r="K38" s="282"/>
-      <c r="L38" s="282"/>
+      <c r="J38" s="246"/>
+      <c r="K38" s="246"/>
+      <c r="L38" s="246"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="211"/>
       <c r="D39" s="212" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F39" s="222"/>
       <c r="G39" s="222"/>
       <c r="H39" s="222" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I39" s="213"/>
-      <c r="J39" s="282" t="s">
-        <v>137</v>
-      </c>
-      <c r="K39" s="282"/>
-      <c r="L39" s="282"/>
+      <c r="J39" s="246" t="s">
+        <v>136</v>
+      </c>
+      <c r="K39" s="246"/>
+      <c r="L39" s="246"/>
     </row>
     <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="211"/>
@@ -6518,14 +6515,14 @@
       <c r="F40" s="222"/>
       <c r="G40" s="222"/>
       <c r="H40" s="222" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I40" s="213"/>
-      <c r="J40" s="282" t="s">
-        <v>143</v>
-      </c>
-      <c r="K40" s="282"/>
-      <c r="L40" s="282"/>
+      <c r="J40" s="246" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40" s="246"/>
+      <c r="L40" s="246"/>
     </row>
     <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
       <c r="D41" s="212"/>
@@ -6534,10 +6531,10 @@
       <c r="D42" s="211"/>
     </row>
     <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="283" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="283"/>
+      <c r="D43" s="245" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="245"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C44">
@@ -6545,23 +6542,82 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D47" s="283" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="283"/>
+      <c r="D47" s="245" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="245"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -6578,72 +6634,13 @@
     <mergeCell ref="J33:L38"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6654,7 +6651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B71" sqref="B71:C71"/>
     </sheetView>
   </sheetViews>
@@ -6675,7 +6672,7 @@
       <c r="B1" s="197"/>
       <c r="C1" s="198"/>
       <c r="D1" s="103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="103"/>
       <c r="F1" s="103"/>
@@ -6683,43 +6680,43 @@
       <c r="H1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="291" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="237" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="237" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="224" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="224" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104"/>
@@ -6732,37 +6729,37 @@
       <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:9" s="106" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="291" t="s">
+      <c r="A6" s="292" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="294" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="293" t="s">
+      <c r="D6" s="296" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="295" t="s">
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="297"/>
+      <c r="H6" s="297"/>
+      <c r="I6" s="298"/>
+    </row>
+    <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="293"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="296"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="297"/>
-    </row>
-    <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="292"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="108" t="s">
+      <c r="E7" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="109" t="s">
+      <c r="G7" s="109" t="s">
         <v>71</v>
-      </c>
-      <c r="G7" s="109" t="s">
-        <v>72</v>
       </c>
       <c r="H7" s="109"/>
       <c r="I7" s="110"/>
@@ -6796,11 +6793,11 @@
     </row>
     <row r="9" spans="1:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="119"/>
       <c r="C9" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="121"/>
       <c r="E9" s="122"/>
@@ -6821,26 +6818,26 @@
       <c r="I10" s="131"/>
     </row>
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="298"/>
-      <c r="B11" s="299"/>
-      <c r="C11" s="300"/>
+      <c r="A11" s="299"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="301"/>
       <c r="D11" s="132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -6858,13 +6855,13 @@
       <c r="A13" s="141">
         <v>1</v>
       </c>
-      <c r="B13" s="288" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="289"/>
+      <c r="B13" s="286" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="287"/>
       <c r="D13" s="144"/>
       <c r="E13" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="144"/>
       <c r="G13" s="144"/>
@@ -6876,12 +6873,12 @@
         <v>2</v>
       </c>
       <c r="B14" s="142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="143"/>
       <c r="D14" s="144"/>
       <c r="E14" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="144"/>
       <c r="G14" s="144"/>
@@ -6892,13 +6889,13 @@
       <c r="A15" s="141">
         <v>3</v>
       </c>
-      <c r="B15" s="288" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="289"/>
+      <c r="B15" s="286" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="287"/>
       <c r="D15" s="144"/>
       <c r="E15" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="144"/>
       <c r="G15" s="144"/>
@@ -6909,13 +6906,13 @@
       <c r="A16" s="141">
         <v>4</v>
       </c>
-      <c r="B16" s="288" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="289"/>
+      <c r="B16" s="286" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="287"/>
       <c r="D16" s="144"/>
       <c r="E16" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="144"/>
       <c r="G16" s="144"/>
@@ -6926,13 +6923,13 @@
       <c r="A17" s="146">
         <v>5</v>
       </c>
-      <c r="B17" s="301" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="302"/>
+      <c r="B17" s="302" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="303"/>
       <c r="D17" s="144"/>
       <c r="E17" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="144"/>
       <c r="G17" s="144"/>
@@ -6943,13 +6940,13 @@
       <c r="A18" s="141">
         <v>6</v>
       </c>
-      <c r="B18" s="303" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="304"/>
+      <c r="B18" s="304" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="305"/>
       <c r="D18" s="144"/>
       <c r="E18" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="144"/>
       <c r="G18" s="144"/>
@@ -6960,13 +6957,13 @@
       <c r="A19" s="141">
         <v>7</v>
       </c>
-      <c r="B19" s="305" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="306"/>
+      <c r="B19" s="306" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="307"/>
       <c r="D19" s="144"/>
       <c r="E19" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="144"/>
       <c r="G19" s="144"/>
@@ -6977,11 +6974,11 @@
       <c r="A20" s="141">
         <v>8</v>
       </c>
-      <c r="B20" s="288"/>
-      <c r="C20" s="289"/>
+      <c r="B20" s="286"/>
+      <c r="C20" s="287"/>
       <c r="D20" s="144"/>
       <c r="E20" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="144"/>
       <c r="G20" s="144"/>
@@ -6992,11 +6989,11 @@
       <c r="A21" s="141">
         <v>9</v>
       </c>
-      <c r="B21" s="288"/>
-      <c r="C21" s="289"/>
+      <c r="B21" s="286"/>
+      <c r="C21" s="287"/>
       <c r="D21" s="144"/>
       <c r="E21" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="144"/>
       <c r="G21" s="144"/>
@@ -7011,7 +7008,7 @@
       <c r="C22" s="143"/>
       <c r="D22" s="144"/>
       <c r="E22" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="144"/>
       <c r="G22" s="144"/>
@@ -7026,7 +7023,7 @@
       <c r="C23" s="148"/>
       <c r="D23" s="144"/>
       <c r="E23" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="144"/>
       <c r="G23" s="144"/>
@@ -7041,7 +7038,7 @@
       <c r="C24" s="148"/>
       <c r="D24" s="144"/>
       <c r="E24" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="144"/>
       <c r="G24" s="144"/>
@@ -7056,7 +7053,7 @@
       <c r="C25" s="143"/>
       <c r="D25" s="144"/>
       <c r="E25" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="144"/>
       <c r="G25" s="144"/>
@@ -7071,7 +7068,7 @@
       <c r="C26" s="143"/>
       <c r="D26" s="144"/>
       <c r="E26" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="144"/>
       <c r="G26" s="144"/>
@@ -7086,7 +7083,7 @@
       <c r="C27" s="143"/>
       <c r="D27" s="144"/>
       <c r="E27" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="144"/>
       <c r="G27" s="144"/>
@@ -7101,7 +7098,7 @@
       <c r="C28" s="143"/>
       <c r="D28" s="144"/>
       <c r="E28" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="144"/>
       <c r="G28" s="144"/>
@@ -7116,7 +7113,7 @@
       <c r="C29" s="143"/>
       <c r="D29" s="144"/>
       <c r="E29" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="144"/>
       <c r="G29" s="144"/>
@@ -7131,7 +7128,7 @@
       <c r="C30" s="143"/>
       <c r="D30" s="144"/>
       <c r="E30" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="144"/>
       <c r="G30" s="144"/>
@@ -7140,34 +7137,34 @@
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="142"/>
       <c r="C31" s="143"/>
       <c r="D31" s="150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="150" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="151" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="186"/>
       <c r="C32" s="162" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="189"/>
       <c r="E32" s="190" t="s">
@@ -7191,11 +7188,11 @@
     </row>
     <row r="34" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="181" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="182"/>
       <c r="C34" s="180" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="152"/>
       <c r="E34" s="152"/>
@@ -7210,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="154" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" s="144"/>
       <c r="E35" s="144" t="s">
@@ -7227,7 +7224,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="144"/>
       <c r="E36" s="144" t="s">
@@ -7244,7 +7241,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="223" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="144"/>
       <c r="E37" s="144"/>
@@ -7259,7 +7256,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="144"/>
       <c r="E38" s="144"/>
@@ -7274,7 +7271,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="156" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="144"/>
       <c r="E39" s="144"/>
@@ -7289,7 +7286,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="144"/>
       <c r="E40" s="144"/>
@@ -7304,7 +7301,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="144"/>
       <c r="E41" s="144"/>
@@ -7319,7 +7316,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="144"/>
       <c r="E42" s="144"/>
@@ -7334,7 +7331,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" s="144"/>
       <c r="E43" s="144"/>
@@ -7373,10 +7370,10 @@
       <c r="A46" s="149"/>
       <c r="B46" s="157"/>
       <c r="C46" s="159" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="150"/>
       <c r="F46" s="150"/>
@@ -7388,7 +7385,7 @@
       <c r="A47" s="160"/>
       <c r="B47" s="161"/>
       <c r="C47" s="194" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="163"/>
       <c r="E47" s="163" t="s">
@@ -7425,11 +7422,11 @@
       <c r="A50" s="40"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
-      <c r="D50" s="228" t="s">
+      <c r="D50" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="229"/>
-      <c r="F50" s="230"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="241"/>
       <c r="H50" s="167"/>
       <c r="I50" s="167"/>
     </row>
@@ -7449,28 +7446,28 @@
       <c r="A52" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="234" t="s">
+      <c r="B52" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="286"/>
+      <c r="C52" s="308"/>
       <c r="D52" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" s="167"/>
       <c r="I52" s="167"/>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
-      <c r="B53" s="234" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="286"/>
+      <c r="B53" s="228" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="308"/>
       <c r="D53" s="102"/>
       <c r="E53" s="102"/>
       <c r="F53" s="101"/>
@@ -7482,13 +7479,13 @@
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" s="192" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" s="95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H54" s="167"/>
       <c r="I54" s="167"/>
@@ -7508,13 +7505,13 @@
       <c r="B56" s="89"/>
       <c r="C56" s="90"/>
       <c r="D56" s="84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="195" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H56" s="167"/>
       <c r="I56" s="167"/>
@@ -7632,13 +7629,13 @@
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="167"/>
-      <c r="E65" s="307" t="s">
-        <v>153</v>
-      </c>
-      <c r="F65" s="307"/>
-      <c r="G65" s="307"/>
-      <c r="H65" s="307"/>
-      <c r="I65" s="307"/>
+      <c r="E65" s="288" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="288"/>
+      <c r="G65" s="288"/>
+      <c r="H65" s="288"/>
+      <c r="I65" s="288"/>
     </row>
     <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="165"/>
@@ -7660,13 +7657,13 @@
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="169"/>
-      <c r="E67" s="308" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67" s="308"/>
-      <c r="G67" s="308"/>
-      <c r="H67" s="308"/>
-      <c r="I67" s="308"/>
+      <c r="E67" s="289" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="289"/>
+      <c r="G67" s="289"/>
+      <c r="H67" s="289"/>
+      <c r="I67" s="289"/>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="165"/>
@@ -7675,13 +7672,13 @@
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="169"/>
-      <c r="E68" s="308" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" s="308"/>
-      <c r="G68" s="308"/>
-      <c r="H68" s="308"/>
-      <c r="I68" s="308"/>
+      <c r="E68" s="289" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" s="289"/>
+      <c r="G68" s="289"/>
+      <c r="H68" s="289"/>
+      <c r="I68" s="289"/>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="165"/>
@@ -7705,8 +7702,8 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="165"/>
-      <c r="B71" s="243"/>
-      <c r="C71" s="243"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="233"/>
       <c r="D71" s="169"/>
       <c r="E71" s="169"/>
       <c r="F71" s="169"/>
@@ -7716,48 +7713,48 @@
     </row>
     <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="172" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="244" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="236" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="244"/>
+      <c r="C72" s="236"/>
       <c r="D72" s="174" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E72" s="175">
         <v>1</v>
       </c>
       <c r="F72" s="176"/>
       <c r="G72" s="176" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H72" s="176" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I72" s="173"/>
     </row>
     <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="172"/>
-      <c r="B73" s="242"/>
-      <c r="C73" s="242"/>
+      <c r="B73" s="232"/>
+      <c r="C73" s="232"/>
       <c r="D73" s="174"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="176" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H73" s="176"/>
       <c r="I73" s="173"/>
     </row>
     <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="66"/>
       <c r="D74" s="174" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E74" s="175">
         <v>2</v>
@@ -7766,15 +7763,15 @@
       <c r="G74" s="176"/>
       <c r="H74" s="176"/>
       <c r="I74" s="173" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="172"/>
-      <c r="B75" s="243" t="s">
+      <c r="B75" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="243"/>
+      <c r="C75" s="233"/>
       <c r="D75" s="174"/>
       <c r="E75" s="175"/>
       <c r="F75" s="176"/>
@@ -7784,27 +7781,27 @@
     </row>
     <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="177" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="66"/>
       <c r="D76" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E76" s="179">
         <v>3</v>
       </c>
-      <c r="F76" s="287"/>
-      <c r="G76" s="287"/>
+      <c r="F76" s="290"/>
+      <c r="G76" s="290"/>
       <c r="H76" s="178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I76" s="178"/>
     </row>
     <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="177"/>
-      <c r="B77" s="243"/>
-      <c r="C77" s="243"/>
+      <c r="B77" s="233"/>
+      <c r="C77" s="233"/>
       <c r="D77" s="178"/>
       <c r="E77" s="179"/>
       <c r="F77" s="178"/>
@@ -7814,12 +7811,12 @@
     </row>
     <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="177" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="242"/>
-      <c r="C78" s="242"/>
+        <v>63</v>
+      </c>
+      <c r="B78" s="232"/>
+      <c r="C78" s="232"/>
       <c r="D78" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E78" s="179">
         <v>4</v>
@@ -7828,70 +7825,70 @@
       <c r="G78" s="178"/>
       <c r="H78" s="178"/>
       <c r="I78" s="178" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="177"/>
-      <c r="B79" s="242"/>
-      <c r="C79" s="242"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="232"/>
       <c r="D79" s="178"/>
       <c r="E79" s="179"/>
       <c r="F79" s="178"/>
       <c r="G79" s="178"/>
       <c r="H79" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I79" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="177" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="66"/>
       <c r="D80" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E80" s="179">
         <v>5</v>
       </c>
-      <c r="F80" s="287"/>
-      <c r="G80" s="287"/>
+      <c r="F80" s="290"/>
+      <c r="G80" s="290"/>
       <c r="H80" s="178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I80" s="178"/>
     </row>
     <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="177" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="243" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="243"/>
+      <c r="C81" s="233"/>
       <c r="D81" s="178"/>
       <c r="E81" s="177"/>
       <c r="F81" s="178"/>
       <c r="G81" s="178"/>
       <c r="H81" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I81" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="177" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="35"/>
       <c r="D82" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E82" s="179">
         <v>6</v>
@@ -7900,53 +7897,53 @@
       <c r="G82" s="178"/>
       <c r="H82" s="178"/>
       <c r="I82" s="178" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="177"/>
-      <c r="B83" s="243"/>
-      <c r="C83" s="243"/>
+      <c r="B83" s="233"/>
+      <c r="C83" s="233"/>
       <c r="D83" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E83" s="179" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F83" s="178"/>
       <c r="G83" s="178"/>
       <c r="H83" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I83" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="177" t="s">
-        <v>64</v>
-      </c>
-      <c r="B84" s="242"/>
-      <c r="C84" s="242"/>
+        <v>63</v>
+      </c>
+      <c r="B84" s="232"/>
+      <c r="C84" s="232"/>
       <c r="D84" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E84" s="179">
         <v>7</v>
       </c>
-      <c r="F84" s="287"/>
-      <c r="G84" s="287"/>
+      <c r="F84" s="290"/>
+      <c r="G84" s="290"/>
       <c r="H84" s="178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I84" s="178"/>
     </row>
     <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="177"/>
-      <c r="B85" s="242"/>
-      <c r="C85" s="242"/>
+      <c r="B85" s="232"/>
+      <c r="C85" s="232"/>
       <c r="D85" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E85" s="178"/>
       <c r="F85" s="179"/>
@@ -7967,10 +7964,10 @@
     </row>
     <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="177"/>
-      <c r="B87" s="243" t="s">
+      <c r="B87" s="233" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="243"/>
+      <c r="C87" s="233"/>
       <c r="D87" s="178"/>
       <c r="E87" s="178"/>
       <c r="F87" s="178"/>
@@ -8018,7 +8015,7 @@
       <c r="D91" s="178"/>
       <c r="E91" s="178"/>
       <c r="F91" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G91" s="178"/>
       <c r="H91" s="178"/>
@@ -8043,7 +8040,7 @@
       <c r="E93" s="178"/>
       <c r="F93" s="178"/>
       <c r="G93" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H93" s="178"/>
       <c r="I93" s="178"/>
@@ -8119,7 +8116,7 @@
       <c r="B100" s="178"/>
       <c r="C100" s="178"/>
       <c r="D100" s="178" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E100" s="178"/>
       <c r="F100" s="178"/>
@@ -8162,14 +8159,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
@@ -8186,18 +8187,14 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F80:G80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
+++ b/templates/10.a-Lam BA PEMBUKAAN 1 Sampul.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="255" windowWidth="9780" windowHeight="5835" tabRatio="602"/>
@@ -850,241 +850,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Nomor :  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#nomor#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, Tanggal </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tgllengkap#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pada hari  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#hari#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tanggal  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tanggal#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Bulan #bulan# Tahun </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tahun#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tgllengkap#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) Jam </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#jam#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Wib, bertempat di </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tempat#,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#panitia#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Persero) Kantor Pusat yang dibentuk sesuai Surat Keputusan Direksi Nomor : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#nosk#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tanggal  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tglsk#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> telah melakukan Pembukaan Penawaran Harga Pekerjaan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#namapengadaan#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> yang dihadiri oleh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#panitia#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> dan Penyedia Barang/Jasa sebagai berikut :</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">PEKERJAAN PENGADAAN  </t>
     </r>
     <r>
@@ -1224,18 +989,24 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>Pada hari  #hari# tanggal  #tanggal# Bulan #bulan# Tahun #tahun# (#tgllengkap#) Pukul #jam# Wib, bertempat di #tempat#, #panitia# (Persero) Kantor Pusat #kalimatpanitia# telah melakukan Pembukaan Penawaran Harga Pekerjaan #namapengadaan# yang dihadiri oleh #panitia# dan Penyedia Barang/Jasa sebagai berikut :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomor :  #nomor#, Tanggal #tgllengkap# </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$Rp-421]#,##0.00;[Red][$Rp-421]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1243,6 +1014,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2695,10 +2467,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3050,24 +2822,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3237,7 +3009,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3390,13 +3162,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3448,6 +3220,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3508,7 +3283,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3543,7 +3318,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3566,14 +3341,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3626,7 +3401,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3912,7 +3687,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3947,7 +3721,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4123,14 +3896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:F49"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
@@ -4145,19 +3918,19 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="18">
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
       <c r="E4" s="71"/>
@@ -4166,7 +3939,7 @@
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="18" customHeight="1">
       <c r="B5" s="237" t="s">
         <v>9</v>
       </c>
@@ -4179,20 +3952,20 @@
       <c r="I5" s="30"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="237" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
+    <row r="6" spans="2:10" ht="18" customHeight="1">
+      <c r="B6" s="309" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="309"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
       <c r="I6" s="30"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="18" customHeight="1">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4203,10 +3976,10 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="2:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="96" customHeight="1">
       <c r="B8" s="5"/>
       <c r="C8" s="238" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D8" s="238"/>
       <c r="E8" s="238"/>
@@ -4216,7 +3989,7 @@
       <c r="I8" s="31"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="14.1" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4227,7 +4000,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="12.75" customHeight="1">
       <c r="B10" s="40"/>
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
@@ -4240,7 +4013,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="12.75" customHeight="1">
       <c r="B11" s="43"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
@@ -4251,7 +4024,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15.75" customHeight="1">
       <c r="B12" s="45" t="s">
         <v>0</v>
       </c>
@@ -4272,7 +4045,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15.75">
       <c r="B13" s="45" t="s">
         <v>1</v>
       </c>
@@ -4285,7 +4058,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="15">
       <c r="B14" s="45"/>
       <c r="C14" s="228" t="s">
         <v>32</v>
@@ -4298,7 +4071,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="12.75" customHeight="1">
       <c r="B15" s="45"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
@@ -4314,7 +4087,7 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="12.75" customHeight="1">
       <c r="B16" s="45"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
@@ -4324,7 +4097,7 @@
       <c r="H16" s="231"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="12.75" customHeight="1">
       <c r="B17" s="46"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -4341,7 +4114,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="15.95" customHeight="1">
       <c r="B18" s="47"/>
       <c r="C18" s="16"/>
       <c r="D18" s="15"/>
@@ -4351,7 +4124,7 @@
       <c r="H18" s="47"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="15.95" customHeight="1">
       <c r="B19" s="44" t="s">
         <v>4</v>
       </c>
@@ -4366,7 +4139,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="15.95" customHeight="1">
       <c r="B20" s="56">
         <v>1</v>
       </c>
@@ -4381,7 +4154,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="15.95" customHeight="1">
       <c r="B21" s="56"/>
       <c r="C21" s="54" t="s">
         <v>25</v>
@@ -4398,7 +4171,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="15.95" customHeight="1">
       <c r="B22" s="56"/>
       <c r="C22" s="54" t="s">
         <v>28</v>
@@ -4415,7 +4188,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="15.95" customHeight="1">
       <c r="B23" s="56">
         <v>2</v>
       </c>
@@ -4434,7 +4207,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="15.95" customHeight="1">
       <c r="B24" s="56">
         <v>3</v>
       </c>
@@ -4453,7 +4226,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="56">
         <v>4</v>
       </c>
@@ -4472,7 +4245,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="B26" s="56">
         <v>5</v>
       </c>
@@ -4491,7 +4264,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="B27" s="56">
         <v>6</v>
       </c>
@@ -4510,7 +4283,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="13.5" thickBot="1">
       <c r="B28" s="43"/>
       <c r="C28" s="7"/>
       <c r="D28" s="6"/>
@@ -4521,7 +4294,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="2:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="15.95" customHeight="1" thickBot="1">
       <c r="B29" s="48"/>
       <c r="C29" s="50" t="s">
         <v>3</v>
@@ -4540,7 +4313,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="15.75">
       <c r="B30" s="44" t="s">
         <v>5</v>
       </c>
@@ -4555,7 +4328,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="15">
       <c r="B31" s="56"/>
       <c r="C31" s="61"/>
       <c r="D31" s="55"/>
@@ -4566,7 +4339,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="15">
       <c r="B32" s="56">
         <v>1</v>
       </c>
@@ -4587,7 +4360,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:36" ht="15">
       <c r="B33" s="56">
         <v>2</v>
       </c>
@@ -4608,7 +4381,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:36" ht="18" customHeight="1">
       <c r="B34" s="56">
         <v>3</v>
       </c>
@@ -4629,7 +4402,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36" ht="18" customHeight="1" thickBot="1">
       <c r="B35" s="43"/>
       <c r="C35" s="53"/>
       <c r="D35" s="6"/>
@@ -4639,7 +4412,7 @@
       <c r="H35" s="45"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36" ht="13.5" thickBot="1">
       <c r="B36" s="48"/>
       <c r="C36" s="50" t="s">
         <v>21</v>
@@ -4683,7 +4456,7 @@
       <c r="AI36" s="20"/>
       <c r="AJ36" s="20"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:36">
       <c r="B37" s="83"/>
       <c r="C37" s="83"/>
       <c r="D37" s="83"/>
@@ -4719,7 +4492,7 @@
       <c r="AI37" s="20"/>
       <c r="AJ37" s="20"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:36">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -4755,7 +4528,7 @@
       <c r="AI38" s="20"/>
       <c r="AJ38" s="20"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:36">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -4791,7 +4564,7 @@
       <c r="AI39" s="20"/>
       <c r="AJ39" s="20"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:36">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -4827,7 +4600,7 @@
       <c r="AI40" s="20"/>
       <c r="AJ40" s="20"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:36">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -4863,7 +4636,7 @@
       <c r="AI41" s="20"/>
       <c r="AJ41" s="20"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:36">
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
@@ -4899,7 +4672,7 @@
       <c r="AI42" s="20"/>
       <c r="AJ42" s="20"/>
     </row>
-    <row r="43" spans="2:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:36" ht="12.75" customHeight="1">
       <c r="B43" s="40"/>
       <c r="C43" s="41"/>
       <c r="D43" s="42"/>
@@ -4912,7 +4685,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:36" ht="12.75" customHeight="1">
       <c r="B44" s="43"/>
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
@@ -4923,7 +4696,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="2:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36" ht="15.75" customHeight="1">
       <c r="B45" s="45" t="s">
         <v>0</v>
       </c>
@@ -4944,7 +4717,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36" ht="15.75">
       <c r="B46" s="45" t="s">
         <v>1</v>
       </c>
@@ -4957,7 +4730,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:36" ht="15">
       <c r="B47" s="45"/>
       <c r="C47" s="228" t="s">
         <v>32</v>
@@ -4970,7 +4743,7 @@
       <c r="I47" s="12"/>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="2:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:36" ht="12.75" customHeight="1">
       <c r="B48" s="45"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
@@ -4986,7 +4759,7 @@
       </c>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="2:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:36" ht="12.75" customHeight="1">
       <c r="B49" s="45"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
@@ -4996,7 +4769,7 @@
       <c r="H49" s="231"/>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="2:36" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:36" ht="12.75" customHeight="1" thickBot="1">
       <c r="B50" s="88"/>
       <c r="C50" s="89"/>
       <c r="D50" s="90"/>
@@ -5013,7 +4786,7 @@
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:36">
       <c r="B51" s="43"/>
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
@@ -5049,7 +4822,7 @@
       <c r="AI51" s="20"/>
       <c r="AJ51" s="20"/>
     </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:36">
       <c r="B52" s="44" t="s">
         <v>6</v>
       </c>
@@ -5095,7 +4868,7 @@
       <c r="AI52" s="20"/>
       <c r="AJ52" s="20"/>
     </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:36">
       <c r="B53" s="56"/>
       <c r="C53" s="54" t="s">
         <v>10</v>
@@ -5133,7 +4906,7 @@
       <c r="AI53" s="20"/>
       <c r="AJ53" s="20"/>
     </row>
-    <row r="54" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:36">
       <c r="B54" s="56"/>
       <c r="C54" s="54" t="s">
         <v>8</v>
@@ -5171,7 +4944,7 @@
       <c r="AI54" s="20"/>
       <c r="AJ54" s="20"/>
     </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:36">
       <c r="B55" s="56"/>
       <c r="C55" s="54" t="s">
         <v>39</v>
@@ -5209,7 +4982,7 @@
       <c r="AI55" s="20"/>
       <c r="AJ55" s="20"/>
     </row>
-    <row r="56" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:36" ht="13.5" thickBot="1">
       <c r="B56" s="49"/>
       <c r="C56" s="51" t="s">
         <v>53</v>
@@ -5247,7 +5020,7 @@
       <c r="AI56" s="20"/>
       <c r="AJ56" s="20"/>
     </row>
-    <row r="57" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:36" ht="13.5" thickBot="1">
       <c r="B57" s="48"/>
       <c r="C57" s="50" t="s">
         <v>21</v>
@@ -5291,7 +5064,7 @@
       <c r="AI57" s="20"/>
       <c r="AJ57" s="20"/>
     </row>
-    <row r="58" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:36" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -5301,7 +5074,7 @@
       <c r="H58" s="10"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:36" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="74" t="s">
         <v>11</v>
       </c>
@@ -5309,13 +5082,13 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:36" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="234" t="s">
         <v>13</v>
       </c>
@@ -5323,13 +5096,13 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="2:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:36" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="234" t="s">
         <v>12</v>
       </c>
@@ -5343,7 +5116,7 @@
       <c r="H61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:36">
       <c r="B62" s="51" t="s">
         <v>16</v>
       </c>
@@ -5354,7 +5127,7 @@
       <c r="H62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:36" ht="15">
       <c r="B63" s="6"/>
       <c r="C63" s="66"/>
       <c r="D63" s="14"/>
@@ -5368,7 +5141,7 @@
       <c r="I63" s="14"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="2:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:36" ht="15">
       <c r="B64" s="236" t="s">
         <v>43</v>
       </c>
@@ -5381,7 +5154,7 @@
       <c r="G64" s="24"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" ht="15">
       <c r="B65" s="6"/>
       <c r="C65" s="66"/>
       <c r="D65" s="14"/>
@@ -5391,7 +5164,7 @@
       <c r="I65" s="17"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" ht="15">
       <c r="B66" s="233"/>
       <c r="C66" s="233"/>
       <c r="D66" s="14"/>
@@ -5405,7 +5178,7 @@
       <c r="I66" s="17"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" ht="15">
       <c r="B67" s="232"/>
       <c r="C67" s="232"/>
       <c r="D67" s="14"/>
@@ -5417,7 +5190,7 @@
       <c r="I67" s="17"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" ht="15">
       <c r="B68" s="232"/>
       <c r="C68" s="232"/>
       <c r="D68" s="14"/>
@@ -5427,7 +5200,7 @@
       <c r="I68" s="17"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" ht="15">
       <c r="B69" s="6"/>
       <c r="C69" s="66"/>
       <c r="D69" s="14"/>
@@ -5441,7 +5214,7 @@
       <c r="I69" s="17"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" ht="15">
       <c r="B70" s="233" t="s">
         <v>45</v>
       </c>
@@ -5455,7 +5228,7 @@
       <c r="I70" s="17"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" ht="15">
       <c r="B71" s="6"/>
       <c r="C71" s="66"/>
       <c r="D71" s="14"/>
@@ -5465,7 +5238,7 @@
       <c r="I71" s="17"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" ht="15">
       <c r="B72" s="233"/>
       <c r="C72" s="233"/>
       <c r="D72" s="14"/>
@@ -5475,7 +5248,7 @@
       <c r="I72" s="17"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" ht="15">
       <c r="B73" s="232"/>
       <c r="C73" s="232"/>
       <c r="D73" s="14"/>
@@ -5485,7 +5258,7 @@
       <c r="I73" s="17"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" ht="15">
       <c r="B74" s="232"/>
       <c r="C74" s="232"/>
       <c r="D74" s="14"/>
@@ -5495,7 +5268,7 @@
       <c r="I74" s="17"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" ht="15">
       <c r="B75" s="6"/>
       <c r="C75" s="66"/>
       <c r="D75" s="14"/>
@@ -5505,7 +5278,7 @@
       <c r="I75" s="14"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" ht="15">
       <c r="B76" s="233" t="s">
         <v>45</v>
       </c>
@@ -5517,7 +5290,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" ht="15">
       <c r="B77" s="6"/>
       <c r="C77" s="35"/>
       <c r="D77" s="14"/>
@@ -5527,7 +5300,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" ht="15">
       <c r="B78" s="233"/>
       <c r="C78" s="233"/>
       <c r="D78" s="14"/>
@@ -5537,7 +5310,7 @@
       <c r="I78" s="14"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" ht="15">
       <c r="B79" s="232"/>
       <c r="C79" s="232"/>
       <c r="D79" s="14"/>
@@ -5547,7 +5320,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" ht="15">
       <c r="B80" s="232"/>
       <c r="C80" s="232"/>
       <c r="D80" s="14"/>
@@ -5557,7 +5330,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10" ht="15">
       <c r="B81" s="6"/>
       <c r="C81" s="66"/>
       <c r="D81" s="26"/>
@@ -5567,7 +5340,7 @@
       <c r="I81" s="14"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:10" ht="15">
       <c r="B82" s="233" t="s">
         <v>45</v>
       </c>
@@ -5579,7 +5352,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10" ht="15">
       <c r="C83" s="35"/>
       <c r="D83" s="27"/>
       <c r="E83" s="5"/>
@@ -5588,7 +5361,7 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10" ht="15">
       <c r="C84" s="36"/>
       <c r="D84" s="26"/>
       <c r="E84" s="37"/>
@@ -5597,7 +5370,7 @@
       <c r="I84" s="14"/>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" ht="15">
       <c r="C85" s="33"/>
       <c r="D85" s="27"/>
       <c r="E85" s="5"/>
@@ -5606,7 +5379,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" ht="15">
       <c r="C86" s="36"/>
       <c r="D86" s="26"/>
       <c r="E86" s="5"/>
@@ -5615,7 +5388,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" ht="15">
       <c r="C87" s="36"/>
       <c r="D87" s="26"/>
       <c r="E87" s="37"/>
@@ -5624,7 +5397,7 @@
       <c r="I87" s="14"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" ht="15">
       <c r="C88" s="33"/>
       <c r="D88" s="26"/>
       <c r="E88" s="5"/>
@@ -5633,7 +5406,7 @@
       <c r="H88" s="6"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" ht="15">
       <c r="C89" s="36"/>
       <c r="D89" s="26"/>
       <c r="E89" s="25"/>
@@ -5642,14 +5415,14 @@
       <c r="H89" s="6"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:10" ht="15">
       <c r="C90" s="32"/>
       <c r="D90" s="27"/>
       <c r="F90" s="26"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10" ht="15">
       <c r="B91" s="6"/>
       <c r="C91" s="34"/>
       <c r="D91" s="26"/>
@@ -5657,7 +5430,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10" ht="15">
       <c r="B92" s="6"/>
       <c r="C92" s="34"/>
       <c r="D92" s="26"/>
@@ -5665,7 +5438,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:10" ht="15">
       <c r="B93" s="6"/>
       <c r="C93" s="32"/>
       <c r="D93" s="27"/>
@@ -5673,7 +5446,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10" ht="15">
       <c r="B94" s="6"/>
       <c r="C94" s="34"/>
       <c r="D94" s="26"/>
@@ -5681,7 +5454,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10" ht="15">
       <c r="B95" s="6"/>
       <c r="C95" s="32"/>
       <c r="D95" s="27"/>
@@ -5689,7 +5462,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" ht="15">
       <c r="B96" s="6"/>
       <c r="C96" s="34"/>
       <c r="D96" s="21"/>
@@ -5697,7 +5470,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15">
       <c r="B97" s="6"/>
       <c r="C97" s="32"/>
       <c r="D97" s="27"/>
@@ -5705,7 +5478,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8">
       <c r="B98" s="6"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -5714,7 +5487,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8">
       <c r="B99" s="6"/>
       <c r="C99" s="14"/>
       <c r="D99" s="27"/>
@@ -5723,37 +5496,37 @@
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8">
       <c r="B101" s="6"/>
       <c r="C101" s="68"/>
       <c r="D101" s="69"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8">
       <c r="B102" s="6"/>
       <c r="C102" s="227"/>
       <c r="D102" s="227"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8">
       <c r="B103" s="6"/>
       <c r="C103" s="227"/>
       <c r="D103" s="227"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8">
       <c r="B104" s="6"/>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -5811,32 +5584,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.5">
       <c r="J2" s="199" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.5">
       <c r="J3" s="199" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="200"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5">
       <c r="A5" s="251" t="s">
         <v>98</v>
       </c>
@@ -5851,9 +5624,9 @@
       <c r="J5" s="251"/>
       <c r="K5" s="251"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="252" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="252"/>
       <c r="C6" s="252"/>
@@ -5866,7 +5639,7 @@
       <c r="J6" s="252"/>
       <c r="K6" s="252"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="201" t="s">
         <v>66</v>
       </c>
@@ -5890,7 +5663,7 @@
       </c>
       <c r="L7" s="203"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="204"/>
       <c r="B8" s="280" t="s">
         <v>103</v>
@@ -5910,7 +5683,7 @@
       <c r="K8" s="205"/>
       <c r="L8" s="203"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="204" t="s">
         <v>4</v>
       </c>
@@ -5932,7 +5705,7 @@
       <c r="K9" s="205"/>
       <c r="L9" s="203"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="206">
         <v>1</v>
       </c>
@@ -5954,7 +5727,7 @@
       <c r="K10" s="205"/>
       <c r="L10" s="203"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="206"/>
       <c r="B11" s="268" t="s">
         <v>108</v>
@@ -5974,7 +5747,7 @@
       <c r="K11" s="205"/>
       <c r="L11" s="203"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="206"/>
       <c r="B12" s="268" t="s">
         <v>109</v>
@@ -5994,7 +5767,7 @@
       <c r="K12" s="205"/>
       <c r="L12" s="203"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="206"/>
       <c r="B13" s="268" t="s">
         <v>110</v>
@@ -6014,7 +5787,7 @@
       <c r="K13" s="205"/>
       <c r="L13" s="203"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="206"/>
       <c r="B14" s="268" t="s">
         <v>111</v>
@@ -6034,7 +5807,7 @@
       <c r="K14" s="205"/>
       <c r="L14" s="203"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="206"/>
       <c r="B15" s="268" t="s">
         <v>112</v>
@@ -6054,7 +5827,7 @@
       <c r="K15" s="205"/>
       <c r="L15" s="203"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="206">
         <v>2</v>
       </c>
@@ -6076,7 +5849,7 @@
       <c r="K16" s="205"/>
       <c r="L16" s="203"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="207">
         <v>3</v>
       </c>
@@ -6098,7 +5871,7 @@
       <c r="K17" s="208"/>
       <c r="L17" s="203"/>
     </row>
-    <row r="18" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="25.5" customHeight="1" thickBot="1">
       <c r="A18" s="206">
         <v>4</v>
       </c>
@@ -6120,7 +5893,7 @@
       <c r="K18" s="205"/>
       <c r="L18" s="203"/>
     </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="25.5" customHeight="1" thickBot="1">
       <c r="A19" s="206">
         <v>5</v>
       </c>
@@ -6142,7 +5915,7 @@
       <c r="K19" s="205"/>
       <c r="L19" s="203"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="206">
         <v>6</v>
       </c>
@@ -6164,7 +5937,7 @@
       <c r="K20" s="205"/>
       <c r="L20" s="203"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="204" t="s">
         <v>5</v>
       </c>
@@ -6186,7 +5959,7 @@
       <c r="K21" s="205"/>
       <c r="L21" s="203"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="206">
         <v>1</v>
       </c>
@@ -6208,7 +5981,7 @@
       <c r="K22" s="205"/>
       <c r="L22" s="203"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="206">
         <v>2</v>
       </c>
@@ -6230,7 +6003,7 @@
       <c r="K23" s="205"/>
       <c r="L23" s="203"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="206">
         <v>3</v>
       </c>
@@ -6252,7 +6025,7 @@
       <c r="K24" s="205"/>
       <c r="L24" s="203"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="A25" s="206">
         <v>4</v>
       </c>
@@ -6274,7 +6047,7 @@
       <c r="K25" s="205"/>
       <c r="L25" s="203"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1">
       <c r="A26" s="206">
         <v>5</v>
       </c>
@@ -6296,7 +6069,7 @@
       <c r="K26" s="205"/>
       <c r="L26" s="203"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="204" t="s">
         <v>6</v>
       </c>
@@ -6318,7 +6091,7 @@
       <c r="K27" s="205"/>
       <c r="L27" s="203"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="204"/>
       <c r="B28" s="268" t="s">
         <v>125</v>
@@ -6338,7 +6111,7 @@
       <c r="K28" s="205"/>
       <c r="L28" s="203"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="214"/>
       <c r="B29" s="215"/>
       <c r="C29" s="216"/>
@@ -6352,7 +6125,7 @@
       <c r="K29" s="221"/>
       <c r="L29" s="203"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="209"/>
       <c r="B30" s="254" t="s">
         <v>128</v>
@@ -6372,7 +6145,7 @@
       <c r="K30" s="210"/>
       <c r="L30" s="203"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.25" thickTop="1">
       <c r="A31" s="260" t="s">
         <v>128</v>
       </c>
@@ -6381,7 +6154,7 @@
       <c r="E31" s="248"/>
       <c r="F31" s="248"/>
       <c r="G31" s="249" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H31" s="249"/>
       <c r="I31" s="249"/>
@@ -6389,7 +6162,7 @@
       <c r="K31" s="249"/>
       <c r="L31" s="249"/>
     </row>
-    <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="27" customHeight="1">
       <c r="A32" s="261" t="s">
         <v>130</v>
       </c>
@@ -6406,7 +6179,7 @@
       <c r="K32" s="249"/>
       <c r="L32" s="249"/>
     </row>
-    <row r="33" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="13.5" customHeight="1">
       <c r="A33" s="261" t="s">
         <v>131</v>
       </c>
@@ -6424,7 +6197,7 @@
       <c r="K33" s="246"/>
       <c r="L33" s="246"/>
     </row>
-    <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="24" customHeight="1">
       <c r="A34" s="261" t="s">
         <v>139</v>
       </c>
@@ -6438,7 +6211,7 @@
       <c r="K34" s="246"/>
       <c r="L34" s="246"/>
     </row>
-    <row r="35" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="27" customHeight="1">
       <c r="A35" s="250"/>
       <c r="B35" s="250"/>
       <c r="D35" s="253" t="s">
@@ -6453,7 +6226,7 @@
       <c r="K35" s="246"/>
       <c r="L35" s="246"/>
     </row>
-    <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A36" s="250"/>
       <c r="B36" s="250"/>
       <c r="D36" s="222"/>
@@ -6465,7 +6238,7 @@
       <c r="K36" s="246"/>
       <c r="L36" s="246"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A37" s="250"/>
       <c r="B37" s="250"/>
       <c r="D37" s="212"/>
@@ -6477,7 +6250,7 @@
       <c r="K37" s="246"/>
       <c r="L37" s="246"/>
     </row>
-    <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A38" s="250"/>
       <c r="B38" s="250"/>
       <c r="D38" s="211"/>
@@ -6489,7 +6262,7 @@
       <c r="K38" s="246"/>
       <c r="L38" s="246"/>
     </row>
-    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="14.25" customHeight="1">
       <c r="B39" s="211"/>
       <c r="D39" s="212" t="s">
         <v>133</v>
@@ -6506,7 +6279,7 @@
       <c r="K39" s="246"/>
       <c r="L39" s="246"/>
     </row>
-    <row r="40" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="13.5" customHeight="1">
       <c r="B40" s="211"/>
       <c r="C40">
         <v>1</v>
@@ -6524,30 +6297,30 @@
       <c r="K40" s="246"/>
       <c r="L40" s="246"/>
     </row>
-    <row r="41" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="13.5">
       <c r="D41" s="212"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="D42" s="211"/>
     </row>
-    <row r="43" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="36.75" customHeight="1">
       <c r="D43" s="245" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="245"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="C44">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="13.5">
       <c r="D47" s="245" t="s">
         <v>141</v>
       </c>
       <c r="E47" s="245"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" s="211"/>
     </row>
   </sheetData>
@@ -6648,14 +6421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B71" sqref="B71:C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="121.85546875" customWidth="1"/>
@@ -6667,7 +6440,7 @@
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="196"/>
       <c r="B1" s="197"/>
       <c r="C1" s="198"/>
@@ -6679,7 +6452,7 @@
       <c r="G1" s="103"/>
       <c r="H1" s="103"/>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="291" t="s">
         <v>64</v>
       </c>
@@ -6692,9 +6465,9 @@
       <c r="H2" s="291"/>
       <c r="I2" s="291"/>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="237" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="237"/>
       <c r="C3" s="237"/>
@@ -6705,7 +6478,7 @@
       <c r="H3" s="237"/>
       <c r="I3" s="237"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="237" t="s">
         <v>65</v>
       </c>
@@ -6718,7 +6491,7 @@
       <c r="H4" s="237"/>
       <c r="I4" s="237"/>
     </row>
-    <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.5" thickBot="1">
       <c r="A5" s="104"/>
       <c r="B5" s="104"/>
       <c r="C5" s="104"/>
@@ -6728,7 +6501,7 @@
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
     </row>
-    <row r="6" spans="1:9" s="106" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="106" customFormat="1" ht="21" thickTop="1">
       <c r="A6" s="292" t="s">
         <v>66</v>
       </c>
@@ -6745,7 +6518,7 @@
       <c r="H6" s="297"/>
       <c r="I6" s="298"/>
     </row>
-    <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="106" customFormat="1" ht="72.75" customHeight="1" thickBot="1">
       <c r="A7" s="293"/>
       <c r="B7" s="107"/>
       <c r="C7" s="295"/>
@@ -6764,7 +6537,7 @@
       <c r="H7" s="109"/>
       <c r="I7" s="110"/>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
       <c r="A8" s="111">
         <v>1</v>
       </c>
@@ -6791,7 +6564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="118" t="s">
         <v>63</v>
       </c>
@@ -6806,7 +6579,7 @@
       <c r="H9" s="123"/>
       <c r="I9" s="124"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" thickTop="1">
       <c r="A10" s="125"/>
       <c r="B10" s="126"/>
       <c r="C10" s="127"/>
@@ -6817,7 +6590,7 @@
       <c r="H10" s="130"/>
       <c r="I10" s="131"/>
     </row>
-    <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="20.25">
       <c r="A11" s="299"/>
       <c r="B11" s="300"/>
       <c r="C11" s="301"/>
@@ -6840,7 +6613,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" hidden="1">
       <c r="A12" s="135"/>
       <c r="B12" s="136"/>
       <c r="C12" s="137"/>
@@ -6851,7 +6624,7 @@
       <c r="H12" s="139"/>
       <c r="I12" s="140"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="141">
         <v>1</v>
       </c>
@@ -6868,7 +6641,7 @@
       <c r="H13" s="144"/>
       <c r="I13" s="145"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="141">
         <v>2</v>
       </c>
@@ -6885,7 +6658,7 @@
       <c r="H14" s="144"/>
       <c r="I14" s="145"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="141">
         <v>3</v>
       </c>
@@ -6902,7 +6675,7 @@
       <c r="H15" s="144"/>
       <c r="I15" s="145"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="141">
         <v>4</v>
       </c>
@@ -6919,7 +6692,7 @@
       <c r="H16" s="144"/>
       <c r="I16" s="145"/>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="146">
         <v>5</v>
       </c>
@@ -6936,7 +6709,7 @@
       <c r="H17" s="144"/>
       <c r="I17" s="145"/>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="141">
         <v>6</v>
       </c>
@@ -6953,7 +6726,7 @@
       <c r="H18" s="144"/>
       <c r="I18" s="145"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="141">
         <v>7</v>
       </c>
@@ -6970,7 +6743,7 @@
       <c r="H19" s="144"/>
       <c r="I19" s="145"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="141">
         <v>8</v>
       </c>
@@ -6985,7 +6758,7 @@
       <c r="H20" s="144"/>
       <c r="I20" s="145"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="141">
         <v>9</v>
       </c>
@@ -7000,7 +6773,7 @@
       <c r="H21" s="144"/>
       <c r="I21" s="145"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="141">
         <v>10</v>
       </c>
@@ -7015,7 +6788,7 @@
       <c r="H22" s="144"/>
       <c r="I22" s="145"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="141">
         <v>11</v>
       </c>
@@ -7030,7 +6803,7 @@
       <c r="H23" s="144"/>
       <c r="I23" s="145"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="141">
         <v>12</v>
       </c>
@@ -7045,7 +6818,7 @@
       <c r="H24" s="144"/>
       <c r="I24" s="145"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="141">
         <v>13</v>
       </c>
@@ -7060,7 +6833,7 @@
       <c r="H25" s="144"/>
       <c r="I25" s="145"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="141">
         <v>14</v>
       </c>
@@ -7075,7 +6848,7 @@
       <c r="H26" s="144"/>
       <c r="I26" s="145"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="141">
         <v>15</v>
       </c>
@@ -7090,7 +6863,7 @@
       <c r="H27" s="144"/>
       <c r="I27" s="145"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="141">
         <v>16</v>
       </c>
@@ -7105,7 +6878,7 @@
       <c r="H28" s="144"/>
       <c r="I28" s="145"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="141">
         <v>17</v>
       </c>
@@ -7120,7 +6893,7 @@
       <c r="H29" s="144"/>
       <c r="I29" s="145"/>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="141">
         <v>18</v>
       </c>
@@ -7135,7 +6908,7 @@
       <c r="H30" s="144"/>
       <c r="I30" s="145"/>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="141" t="s">
         <v>63</v>
       </c>
@@ -7160,7 +6933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="186"/>
       <c r="C32" s="162" t="s">
@@ -7175,7 +6948,7 @@
       <c r="H32" s="191"/>
       <c r="I32" s="190"/>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="11"/>
       <c r="B33" s="186"/>
       <c r="C33" s="186"/>
@@ -7186,7 +6959,7 @@
       <c r="H33" s="187"/>
       <c r="I33" s="188"/>
     </row>
-    <row r="34" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="181" t="s">
         <v>63</v>
       </c>
@@ -7201,7 +6974,7 @@
       <c r="H34" s="152"/>
       <c r="I34" s="153"/>
     </row>
-    <row r="35" spans="1:9" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="24.95" customHeight="1" thickTop="1">
       <c r="A35" s="183"/>
       <c r="B35" s="184">
         <v>1</v>
@@ -7218,7 +6991,7 @@
       <c r="H35" s="144"/>
       <c r="I35" s="155"/>
     </row>
-    <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="24.95" customHeight="1">
       <c r="A36" s="183"/>
       <c r="B36" s="184">
         <v>2</v>
@@ -7235,7 +7008,7 @@
       <c r="H36" s="144"/>
       <c r="I36" s="155"/>
     </row>
-    <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="24.95" customHeight="1">
       <c r="A37" s="183"/>
       <c r="B37" s="184">
         <v>3</v>
@@ -7250,7 +7023,7 @@
       <c r="H37" s="144"/>
       <c r="I37" s="145"/>
     </row>
-    <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="24.95" customHeight="1">
       <c r="A38" s="183"/>
       <c r="B38" s="184">
         <v>4</v>
@@ -7265,7 +7038,7 @@
       <c r="H38" s="144"/>
       <c r="I38" s="145"/>
     </row>
-    <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="24.95" customHeight="1">
       <c r="A39" s="183"/>
       <c r="B39" s="184">
         <v>5</v>
@@ -7280,7 +7053,7 @@
       <c r="H39" s="144"/>
       <c r="I39" s="155"/>
     </row>
-    <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="24.95" customHeight="1">
       <c r="A40" s="183"/>
       <c r="B40" s="184">
         <v>6</v>
@@ -7295,7 +7068,7 @@
       <c r="H40" s="144"/>
       <c r="I40" s="145"/>
     </row>
-    <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="24.95" customHeight="1">
       <c r="A41" s="183"/>
       <c r="B41" s="184">
         <v>7</v>
@@ -7310,7 +7083,7 @@
       <c r="H41" s="158"/>
       <c r="I41" s="145"/>
     </row>
-    <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="24.95" customHeight="1">
       <c r="A42" s="183"/>
       <c r="B42" s="184">
         <v>8</v>
@@ -7325,7 +7098,7 @@
       <c r="H42" s="144"/>
       <c r="I42" s="145"/>
     </row>
-    <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="24.95" customHeight="1">
       <c r="A43" s="183"/>
       <c r="B43" s="184">
         <v>9</v>
@@ -7340,7 +7113,7 @@
       <c r="H43" s="144"/>
       <c r="I43" s="145"/>
     </row>
-    <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="24.95" customHeight="1">
       <c r="A44" s="183"/>
       <c r="B44" s="184">
         <v>10</v>
@@ -7353,7 +7126,7 @@
       <c r="H44" s="144"/>
       <c r="I44" s="145"/>
     </row>
-    <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="24.95" customHeight="1">
       <c r="A45" s="183"/>
       <c r="B45" s="184">
         <v>11</v>
@@ -7366,7 +7139,7 @@
       <c r="H45" s="144"/>
       <c r="I45" s="145"/>
     </row>
-    <row r="46" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="24.95" customHeight="1" thickBot="1">
       <c r="A46" s="149"/>
       <c r="B46" s="157"/>
       <c r="C46" s="159" t="s">
@@ -7381,7 +7154,7 @@
       <c r="H46" s="150"/>
       <c r="I46" s="151"/>
     </row>
-    <row r="47" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A47" s="160"/>
       <c r="B47" s="161"/>
       <c r="C47" s="194" t="s">
@@ -7396,7 +7169,7 @@
       <c r="H47" s="163"/>
       <c r="I47" s="164"/>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A48" s="165"/>
       <c r="B48" s="165"/>
       <c r="C48" s="166"/>
@@ -7407,7 +7180,7 @@
       <c r="H48" s="167"/>
       <c r="I48" s="168"/>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="165"/>
       <c r="B49" s="165"/>
       <c r="C49" s="166"/>
@@ -7418,7 +7191,7 @@
       <c r="H49" s="167"/>
       <c r="I49" s="167"/>
     </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="40"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
@@ -7430,7 +7203,7 @@
       <c r="H50" s="167"/>
       <c r="I50" s="167"/>
     </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="45" t="s">
         <v>0</v>
       </c>
@@ -7442,7 +7215,7 @@
       <c r="H51" s="167"/>
       <c r="I51" s="167"/>
     </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="45" t="s">
         <v>1</v>
       </c>
@@ -7462,7 +7235,7 @@
       <c r="H52" s="167"/>
       <c r="I52" s="167"/>
     </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="45"/>
       <c r="B53" s="228" t="s">
         <v>97</v>
@@ -7474,7 +7247,7 @@
       <c r="H53" s="167"/>
       <c r="I53" s="167"/>
     </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="45"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
@@ -7490,7 +7263,7 @@
       <c r="H54" s="167"/>
       <c r="I54" s="167"/>
     </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="45"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
@@ -7500,7 +7273,7 @@
       <c r="H55" s="167"/>
       <c r="I55" s="167"/>
     </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A56" s="88"/>
       <c r="B56" s="89"/>
       <c r="C56" s="90"/>
@@ -7516,7 +7289,7 @@
       <c r="H56" s="167"/>
       <c r="I56" s="167"/>
     </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="43"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -7526,7 +7299,7 @@
       <c r="H57" s="167"/>
       <c r="I57" s="167"/>
     </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="44" t="s">
         <v>6</v>
       </c>
@@ -7546,7 +7319,7 @@
       <c r="H58" s="167"/>
       <c r="I58" s="167"/>
     </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="56"/>
       <c r="B59" s="54" t="s">
         <v>10</v>
@@ -7558,7 +7331,7 @@
       <c r="H59" s="167"/>
       <c r="I59" s="167"/>
     </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="56"/>
       <c r="B60" s="54" t="s">
         <v>8</v>
@@ -7570,7 +7343,7 @@
       <c r="H60" s="167"/>
       <c r="I60" s="167"/>
     </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="56"/>
       <c r="B61" s="54" t="s">
         <v>39</v>
@@ -7582,7 +7355,7 @@
       <c r="H61" s="167"/>
       <c r="I61" s="167"/>
     </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A62" s="49"/>
       <c r="B62" s="51" t="s">
         <v>53</v>
@@ -7594,7 +7367,7 @@
       <c r="H62" s="167"/>
       <c r="I62" s="167"/>
     </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A63" s="48"/>
       <c r="B63" s="50" t="s">
         <v>21</v>
@@ -7612,7 +7385,7 @@
       <c r="H63" s="167"/>
       <c r="I63" s="167"/>
     </row>
-    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -7622,7 +7395,7 @@
       <c r="H64" s="167"/>
       <c r="I64" s="167"/>
     </row>
-    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="165"/>
       <c r="B65" s="185" t="s">
         <v>11</v>
@@ -7630,14 +7403,14 @@
       <c r="C65" s="9"/>
       <c r="D65" s="167"/>
       <c r="E65" s="288" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F65" s="288"/>
       <c r="G65" s="288"/>
       <c r="H65" s="288"/>
       <c r="I65" s="288"/>
     </row>
-    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="165"/>
       <c r="B66" s="185" t="s">
         <v>13</v>
@@ -7650,7 +7423,7 @@
       <c r="H66" s="167"/>
       <c r="I66" s="167"/>
     </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="165"/>
       <c r="B67" s="8" t="s">
         <v>12</v>
@@ -7658,14 +7431,14 @@
       <c r="C67" s="8"/>
       <c r="D67" s="169"/>
       <c r="E67" s="289" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F67" s="289"/>
       <c r="G67" s="289"/>
       <c r="H67" s="289"/>
       <c r="I67" s="289"/>
     </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="165"/>
       <c r="B68" s="14" t="s">
         <v>16</v>
@@ -7680,7 +7453,7 @@
       <c r="H68" s="289"/>
       <c r="I68" s="289"/>
     </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="165"/>
       <c r="D69" s="169"/>
       <c r="E69" s="170"/>
@@ -7689,7 +7462,7 @@
       <c r="H69" s="170"/>
       <c r="I69" s="170"/>
     </row>
-    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="165"/>
       <c r="B70" s="6"/>
       <c r="C70" s="66"/>
@@ -7700,7 +7473,7 @@
       <c r="H70" s="170"/>
       <c r="I70" s="170"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="165"/>
       <c r="B71" s="233"/>
       <c r="C71" s="233"/>
@@ -7711,7 +7484,7 @@
       <c r="H71" s="171"/>
       <c r="I71" s="104"/>
     </row>
-    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="18">
       <c r="A72" s="172" t="s">
         <v>63</v>
       </c>
@@ -7734,7 +7507,7 @@
       </c>
       <c r="I72" s="173"/>
     </row>
-    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="18">
       <c r="A73" s="172"/>
       <c r="B73" s="232"/>
       <c r="C73" s="232"/>
@@ -7747,7 +7520,7 @@
       <c r="H73" s="176"/>
       <c r="I73" s="173"/>
     </row>
-    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="18">
       <c r="A74" s="172" t="s">
         <v>63</v>
       </c>
@@ -7766,7 +7539,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="18">
       <c r="A75" s="172"/>
       <c r="B75" s="233" t="s">
         <v>45</v>
@@ -7779,7 +7552,7 @@
       <c r="H75" s="176"/>
       <c r="I75" s="173"/>
     </row>
-    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="18">
       <c r="A76" s="177" t="s">
         <v>63</v>
       </c>
@@ -7798,7 +7571,7 @@
       </c>
       <c r="I76" s="178"/>
     </row>
-    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="18">
       <c r="A77" s="177"/>
       <c r="B77" s="233"/>
       <c r="C77" s="233"/>
@@ -7809,7 +7582,7 @@
       <c r="H77" s="178"/>
       <c r="I77" s="178"/>
     </row>
-    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="18">
       <c r="A78" s="177" t="s">
         <v>63</v>
       </c>
@@ -7828,7 +7601,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="18">
       <c r="A79" s="177"/>
       <c r="B79" s="232"/>
       <c r="C79" s="232"/>
@@ -7843,7 +7616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="18">
       <c r="A80" s="177" t="s">
         <v>63</v>
       </c>
@@ -7862,7 +7635,7 @@
       </c>
       <c r="I80" s="178"/>
     </row>
-    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="18">
       <c r="A81" s="177" t="s">
         <v>63</v>
       </c>
@@ -7881,7 +7654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="18">
       <c r="A82" s="177" t="s">
         <v>63</v>
       </c>
@@ -7900,7 +7673,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="18">
       <c r="A83" s="177"/>
       <c r="B83" s="233"/>
       <c r="C83" s="233"/>
@@ -7919,7 +7692,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="18">
       <c r="A84" s="177" t="s">
         <v>63</v>
       </c>
@@ -7938,7 +7711,7 @@
       </c>
       <c r="I84" s="178"/>
     </row>
-    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="18">
       <c r="A85" s="177"/>
       <c r="B85" s="232"/>
       <c r="C85" s="232"/>
@@ -7951,7 +7724,7 @@
       <c r="H85" s="178"/>
       <c r="I85" s="178"/>
     </row>
-    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="18">
       <c r="A86" s="177"/>
       <c r="B86" s="6"/>
       <c r="C86" s="66"/>
@@ -7962,7 +7735,7 @@
       <c r="H86" s="178"/>
       <c r="I86" s="178"/>
     </row>
-    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="18">
       <c r="A87" s="177"/>
       <c r="B87" s="233" t="s">
         <v>45</v>
@@ -7975,7 +7748,7 @@
       <c r="H87" s="178"/>
       <c r="I87" s="178"/>
     </row>
-    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="18">
       <c r="A88" s="177"/>
       <c r="B88" s="177"/>
       <c r="C88" s="178"/>
@@ -7986,7 +7759,7 @@
       <c r="H88" s="178"/>
       <c r="I88" s="178"/>
     </row>
-    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="18">
       <c r="A89" s="177"/>
       <c r="B89" s="177"/>
       <c r="C89" s="178"/>
@@ -7997,7 +7770,7 @@
       <c r="H89" s="178"/>
       <c r="I89" s="178"/>
     </row>
-    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="18">
       <c r="A90" s="178"/>
       <c r="B90" s="178"/>
       <c r="C90" s="178"/>
@@ -8008,7 +7781,7 @@
       <c r="H90" s="178"/>
       <c r="I90" s="178"/>
     </row>
-    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="18">
       <c r="A91" s="178"/>
       <c r="B91" s="178"/>
       <c r="C91" s="178"/>
@@ -8021,7 +7794,7 @@
       <c r="H91" s="178"/>
       <c r="I91" s="178"/>
     </row>
-    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="18">
       <c r="A92" s="178"/>
       <c r="B92" s="178"/>
       <c r="C92" s="178"/>
@@ -8032,7 +7805,7 @@
       <c r="H92" s="178"/>
       <c r="I92" s="178"/>
     </row>
-    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="18">
       <c r="A93" s="178"/>
       <c r="B93" s="178"/>
       <c r="C93" s="178"/>
@@ -8045,7 +7818,7 @@
       <c r="H93" s="178"/>
       <c r="I93" s="178"/>
     </row>
-    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="18">
       <c r="A94" s="178"/>
       <c r="B94" s="178"/>
       <c r="C94" s="178"/>
@@ -8056,7 +7829,7 @@
       <c r="H94" s="178"/>
       <c r="I94" s="178"/>
     </row>
-    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="18">
       <c r="A95" s="178"/>
       <c r="B95" s="178"/>
       <c r="C95" s="178"/>
@@ -8067,7 +7840,7 @@
       <c r="H95" s="178"/>
       <c r="I95" s="178"/>
     </row>
-    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="18">
       <c r="A96" s="178"/>
       <c r="B96" s="178"/>
       <c r="C96" s="178"/>
@@ -8078,7 +7851,7 @@
       <c r="H96" s="178"/>
       <c r="I96" s="178"/>
     </row>
-    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="18">
       <c r="A97" s="178"/>
       <c r="B97" s="178"/>
       <c r="C97" s="178"/>
@@ -8089,7 +7862,7 @@
       <c r="H97" s="178"/>
       <c r="I97" s="178"/>
     </row>
-    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="18">
       <c r="A98" s="178"/>
       <c r="B98" s="178"/>
       <c r="C98" s="178"/>
@@ -8100,7 +7873,7 @@
       <c r="H98" s="178"/>
       <c r="I98" s="178"/>
     </row>
-    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="18">
       <c r="A99" s="178"/>
       <c r="B99" s="178"/>
       <c r="C99" s="178"/>
@@ -8111,7 +7884,7 @@
       <c r="H99" s="178"/>
       <c r="I99" s="178"/>
     </row>
-    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="18">
       <c r="A100" s="178"/>
       <c r="B100" s="178"/>
       <c r="C100" s="178"/>
@@ -8124,7 +7897,7 @@
       <c r="H100" s="178"/>
       <c r="I100" s="178"/>
     </row>
-    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="18">
       <c r="A101" s="178"/>
       <c r="B101" s="178"/>
       <c r="C101" s="178"/>
@@ -8135,7 +7908,7 @@
       <c r="H101" s="178"/>
       <c r="I101" s="178"/>
     </row>
-    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="18">
       <c r="A102" s="178"/>
       <c r="B102" s="178"/>
       <c r="C102" s="178"/>
@@ -8146,7 +7919,7 @@
       <c r="H102" s="178"/>
       <c r="I102" s="178"/>
     </row>
-    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="18">
       <c r="A103" s="178"/>
       <c r="B103" s="178"/>
       <c r="C103" s="178"/>
